--- a/Topic 5/Семинар Решение ПИ20-2.xlsx
+++ b/Topic 5/Семинар Решение ПИ20-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myfri\Downloads\ODMExcel-main\Topic 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinU\2021-2022\Д_Excel\Тема 5 Порфель\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBF9F13-D293-4A8C-9CF1-1AA9FE97C096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6878ECB-898B-49B9-91F5-A1D176190090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="252" windowWidth="22476" windowHeight="11844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="75" windowWidth="27795" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -942,6 +942,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1119,15 +1128,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2074,15 +2074,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>259773</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>528204</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>145472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>564573</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>226868</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>6927</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19763,6 +19763,56 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>54303</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1106D619-DE32-49BD-BF4B-C60B865C04AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1224643" y="4408714"/>
+          <a:ext cx="6177517" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22430,7 +22480,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F81B30B-9A06-4191-B2E4-A42CBA8D3CE1}" name="Сводная таблица1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F81B30B-9A06-4191-B2E4-A42CBA8D3CE1}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:E47" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -23293,28 +23343,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6324AE77-1C0E-4FC4-A7D4-CB514BD3238E}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="39" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="98" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B2" t="s">
@@ -23330,302 +23380,302 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="99" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="100">
+      <c r="B3" s="41">
         <v>286.75</v>
       </c>
-      <c r="C3" s="100">
+      <c r="C3" s="41">
         <v>306.51</v>
       </c>
-      <c r="D3" s="100">
+      <c r="D3" s="41">
         <v>43.77</v>
       </c>
-      <c r="E3" s="100">
+      <c r="E3" s="41">
         <v>6052</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="I3" s="101" t="str">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="I3" s="42" t="str">
         <f>B2</f>
         <v>GAZP</v>
       </c>
-      <c r="J3" s="101" t="str">
+      <c r="J3" s="42" t="str">
         <f>C2</f>
         <v>SBER</v>
       </c>
-      <c r="K3" s="101" t="str">
+      <c r="K3" s="42" t="str">
         <f>D2</f>
         <v>SELG</v>
       </c>
-      <c r="L3" s="101" t="str">
+      <c r="L3" s="42" t="str">
         <f>E2</f>
         <v>AKRN</v>
       </c>
-      <c r="M3" s="101" t="s">
+      <c r="M3" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="N3" s="101"/>
-      <c r="R3" s="101" t="str">
+      <c r="N3" s="42"/>
+      <c r="R3" s="42" t="str">
         <f>I3</f>
         <v>GAZP</v>
       </c>
-      <c r="S3" s="101" t="str">
+      <c r="S3" s="42" t="str">
         <f>J3</f>
         <v>SBER</v>
       </c>
-      <c r="T3" s="101" t="str">
+      <c r="T3" s="42" t="str">
         <f>K3</f>
         <v>SELG</v>
       </c>
-      <c r="U3" s="101" t="str">
+      <c r="U3" s="42" t="str">
         <f>L3</f>
         <v>AKRN</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="100">
+      <c r="B4" s="41">
         <v>287.08999999999997</v>
       </c>
-      <c r="C4" s="100">
+      <c r="C4" s="41">
         <v>309.89</v>
       </c>
-      <c r="D4" s="100">
+      <c r="D4" s="41">
         <v>43.79</v>
       </c>
-      <c r="E4" s="100">
+      <c r="E4" s="41">
         <v>6008</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="I4" s="102">
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="I4" s="43">
         <f>(B4-B3)/B3</f>
         <v>1.1857018308630339E-3</v>
       </c>
-      <c r="J4" s="102">
+      <c r="J4" s="43">
         <f>(C4-C3)/C3</f>
         <v>1.1027372679521046E-2</v>
       </c>
-      <c r="K4" s="102">
+      <c r="K4" s="43">
         <f>(D4-D3)/D3</f>
         <v>4.5693397304080464E-4</v>
       </c>
-      <c r="L4" s="102">
+      <c r="L4" s="43">
         <f>(E4-E3)/E3</f>
         <v>-7.2703238598810314E-3</v>
       </c>
-      <c r="M4" s="102">
+      <c r="M4" s="43">
         <f>$R$14*I4+$S$14*J4+$T$14*K4</f>
         <v>3.4648791389220667E-3</v>
       </c>
-      <c r="N4" s="102"/>
+      <c r="N4" s="43"/>
       <c r="Q4" t="s">
         <v>109</v>
       </c>
-      <c r="R4" s="102">
+      <c r="R4" s="43">
         <f>AVERAGE(I4:I47)*COUNT(B3:B47)</f>
         <v>0.24633258859900181</v>
       </c>
-      <c r="S4" s="102">
+      <c r="S4" s="43">
         <f>AVERAGE(J4:J47)*COUNT(C3:C47)</f>
         <v>0.10511499843391411</v>
       </c>
-      <c r="T4" s="102">
+      <c r="T4" s="43">
         <f>AVERAGE(K4:K47)*COUNT(D3:D47)</f>
         <v>3.4793809146010414E-2</v>
       </c>
-      <c r="U4" s="102">
+      <c r="U4" s="43">
         <f>AVERAGE(L4:L47)*COUNT(E3:E47)</f>
         <v>0.18708025433394515</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="100">
+      <c r="B5" s="41">
         <v>287.94</v>
       </c>
-      <c r="C5" s="100">
+      <c r="C5" s="41">
         <v>311.10000000000002</v>
       </c>
-      <c r="D5" s="100">
+      <c r="D5" s="41">
         <v>43.86</v>
       </c>
-      <c r="E5" s="100">
+      <c r="E5" s="41">
         <v>5946</v>
       </c>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="I5" s="102">
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="I5" s="43">
         <f t="shared" ref="I5:I47" si="0">(B5-B4)/B4</f>
         <v>2.9607440175555499E-3</v>
       </c>
-      <c r="J5" s="102">
+      <c r="J5" s="43">
         <f t="shared" ref="J5:J47" si="1">(C5-C4)/C4</f>
         <v>3.9046113136920729E-3</v>
       </c>
-      <c r="K5" s="102">
+      <c r="K5" s="43">
         <f t="shared" ref="K5:K47" si="2">(D5-D4)/D4</f>
         <v>1.5985384791048249E-3</v>
       </c>
-      <c r="L5" s="102">
+      <c r="L5" s="43">
         <f t="shared" ref="L5:L47" si="3">(E5-E4)/E4</f>
         <v>-1.0319573901464714E-2</v>
       </c>
-      <c r="M5" s="102">
+      <c r="M5" s="43">
         <f t="shared" ref="M5:M47" si="4">$R$14*I5+$S$14*J5+$T$14*K5</f>
         <v>2.3617367152906805E-3</v>
       </c>
-      <c r="N5" s="102"/>
+      <c r="N5" s="43"/>
       <c r="Q5" t="s">
         <v>110</v>
       </c>
-      <c r="R5" s="102">
+      <c r="R5" s="43">
         <f>_xlfn.STDEV.S(I4:I47)*SQRT(COUNT(B3:B47))</f>
         <v>8.8770068976103983E-2</v>
       </c>
-      <c r="S5" s="102">
+      <c r="S5" s="43">
         <f>_xlfn.STDEV.S(J4:J47)*SQRT(COUNT(C3:C47))</f>
         <v>8.5250326526060669E-2</v>
       </c>
-      <c r="T5" s="102">
+      <c r="T5" s="43">
         <f>_xlfn.STDEV.S(K4:K47)*SQRT(COUNT(D3:D47))</f>
         <v>5.8688670882493486E-2</v>
       </c>
-      <c r="U5" s="102">
+      <c r="U5" s="43">
         <f>_xlfn.STDEV.S(L4:L47)*SQRT(COUNT(E3:E47))</f>
         <v>0.16851373251731383</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="99" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="100">
+      <c r="B6" s="41">
         <v>285.95</v>
       </c>
-      <c r="C6" s="100">
+      <c r="C6" s="41">
         <v>315.82</v>
       </c>
-      <c r="D6" s="100">
+      <c r="D6" s="41">
         <v>44.17</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="41">
         <v>5994</v>
       </c>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="I6" s="102">
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="I6" s="43">
         <f t="shared" si="0"/>
         <v>-6.9111620476488477E-3</v>
       </c>
-      <c r="J6" s="102">
+      <c r="J6" s="43">
         <f t="shared" si="1"/>
         <v>1.5171970427515172E-2</v>
       </c>
-      <c r="K6" s="102">
+      <c r="K6" s="43">
         <f t="shared" si="2"/>
         <v>7.0679434564524003E-3</v>
       </c>
-      <c r="L6" s="102">
+      <c r="L6" s="43">
         <f t="shared" si="3"/>
         <v>8.0726538849646822E-3</v>
       </c>
-      <c r="M6" s="102">
+      <c r="M6" s="43">
         <f t="shared" si="4"/>
         <v>8.0814874754247881E-3</v>
       </c>
-      <c r="N6" s="102"/>
+      <c r="N6" s="43"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="99" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="100">
+      <c r="B7" s="41">
         <v>282.27</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="41">
         <v>319.14999999999998</v>
       </c>
-      <c r="D7" s="100">
+      <c r="D7" s="41">
         <v>43.91</v>
       </c>
-      <c r="E7" s="100">
+      <c r="E7" s="41">
         <v>5980</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="I7" s="102">
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="I7" s="43">
         <f t="shared" si="0"/>
         <v>-1.2869382759223665E-2</v>
       </c>
-      <c r="J7" s="102">
+      <c r="J7" s="43">
         <f t="shared" si="1"/>
         <v>1.0543980748527592E-2</v>
       </c>
-      <c r="K7" s="102">
+      <c r="K7" s="43">
         <f t="shared" si="2"/>
         <v>-5.8863482001359543E-3</v>
       </c>
-      <c r="L7" s="102">
+      <c r="L7" s="43">
         <f t="shared" si="3"/>
         <v>-2.3356690023356688E-3</v>
       </c>
-      <c r="M7" s="102">
+      <c r="M7" s="43">
         <f t="shared" si="4"/>
         <v>-1.9324748245456707E-3</v>
       </c>
-      <c r="N7" s="102"/>
+      <c r="N7" s="43"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="41">
         <v>286.68</v>
       </c>
-      <c r="C8" s="100">
+      <c r="C8" s="41">
         <v>326.91000000000003</v>
       </c>
-      <c r="D8" s="100">
+      <c r="D8" s="41">
         <v>43.72</v>
       </c>
-      <c r="E8" s="100">
+      <c r="E8" s="41">
         <v>5980</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="I8" s="102">
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="I8" s="43">
         <f t="shared" si="0"/>
         <v>1.5623339355935895E-2</v>
       </c>
-      <c r="J8" s="102">
+      <c r="J8" s="43">
         <f t="shared" si="1"/>
         <v>2.4314585618048092E-2</v>
       </c>
-      <c r="K8" s="102">
+      <c r="K8" s="43">
         <f t="shared" si="2"/>
         <v>-4.3270325666134764E-3</v>
       </c>
-      <c r="L8" s="102">
+      <c r="L8" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="102">
+      <c r="M8" s="43">
         <f t="shared" si="4"/>
         <v>5.4214981878946246E-3</v>
       </c>
-      <c r="N8" s="102"/>
-      <c r="P8" s="103" t="s">
+      <c r="N8" s="43"/>
+      <c r="P8" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="Q8" s="103" t="s">
+      <c r="Q8" s="44" t="s">
         <v>112</v>
       </c>
       <c r="R8">
@@ -23636,46 +23686,46 @@
         <v>0.52905569005040098</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="99" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="100">
+      <c r="B9" s="41">
         <v>288.61</v>
       </c>
-      <c r="C9" s="100">
+      <c r="C9" s="41">
         <v>330.11</v>
       </c>
-      <c r="D9" s="100">
+      <c r="D9" s="41">
         <v>43.54</v>
       </c>
-      <c r="E9" s="100">
+      <c r="E9" s="41">
         <v>5972</v>
       </c>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="I9" s="102">
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="I9" s="43">
         <f t="shared" si="0"/>
         <v>6.7322450118599371E-3</v>
       </c>
-      <c r="J9" s="102">
+      <c r="J9" s="43">
         <f t="shared" si="1"/>
         <v>9.78862683919118E-3</v>
       </c>
-      <c r="K9" s="102">
+      <c r="K9" s="43">
         <f t="shared" si="2"/>
         <v>-4.1171088746569011E-3</v>
       </c>
-      <c r="L9" s="102">
+      <c r="L9" s="43">
         <f t="shared" si="3"/>
         <v>-1.3377926421404682E-3</v>
       </c>
-      <c r="M9" s="102">
+      <c r="M9" s="43">
         <f t="shared" si="4"/>
         <v>7.1930872715625328E-4</v>
       </c>
-      <c r="N9" s="102"/>
-      <c r="Q9" s="103" t="s">
+      <c r="N9" s="43"/>
+      <c r="Q9" s="44" t="s">
         <v>113</v>
       </c>
       <c r="R9">
@@ -23683,46 +23733,46 @@
         <v>0.17162061898695663</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="99" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="100">
+      <c r="B10" s="41">
         <v>290.35000000000002</v>
       </c>
-      <c r="C10" s="100">
+      <c r="C10" s="41">
         <v>329.9</v>
       </c>
-      <c r="D10" s="100">
+      <c r="D10" s="41">
         <v>43.64</v>
       </c>
-      <c r="E10" s="100">
+      <c r="E10" s="41">
         <v>6000</v>
       </c>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="I10" s="102">
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="I10" s="43">
         <f t="shared" si="0"/>
         <v>6.0288971276116869E-3</v>
       </c>
-      <c r="J10" s="102">
+      <c r="J10" s="43">
         <f t="shared" si="1"/>
         <v>-6.3615158583513491E-4</v>
       </c>
-      <c r="K10" s="102">
+      <c r="K10" s="43">
         <f t="shared" si="2"/>
         <v>2.2967386311438086E-3</v>
       </c>
-      <c r="L10" s="102">
+      <c r="L10" s="43">
         <f t="shared" si="3"/>
         <v>4.6885465505693237E-3</v>
       </c>
-      <c r="M10" s="102">
+      <c r="M10" s="43">
         <f t="shared" si="4"/>
         <v>1.8119525959929413E-3</v>
       </c>
-      <c r="N10" s="102"/>
-      <c r="Q10" s="103" t="s">
+      <c r="N10" s="43"/>
+      <c r="Q10" s="44" t="s">
         <v>11</v>
       </c>
       <c r="R10">
@@ -23730,169 +23780,169 @@
         <v>7.0213369271254239E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="99" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="100">
+      <c r="B11" s="41">
         <v>293.23</v>
       </c>
-      <c r="C11" s="100">
+      <c r="C11" s="41">
         <v>328.57</v>
       </c>
-      <c r="D11" s="100">
+      <c r="D11" s="41">
         <v>43.79</v>
       </c>
-      <c r="E11" s="100">
+      <c r="E11" s="41">
         <v>5928</v>
       </c>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="I11" s="102">
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="I11" s="43">
         <f t="shared" si="0"/>
         <v>9.9190631995866897E-3</v>
       </c>
-      <c r="J11" s="102">
+      <c r="J11" s="43">
         <f t="shared" si="1"/>
         <v>-4.0315247044558477E-3</v>
       </c>
-      <c r="K11" s="102">
+      <c r="K11" s="43">
         <f t="shared" si="2"/>
         <v>3.4372135655361727E-3</v>
       </c>
-      <c r="L11" s="102">
+      <c r="L11" s="43">
         <f t="shared" si="3"/>
         <v>-1.2E-2</v>
       </c>
-      <c r="M11" s="102">
+      <c r="M11" s="43">
         <f t="shared" si="4"/>
         <v>1.9339755283003012E-3</v>
       </c>
-      <c r="N11" s="102"/>
+      <c r="N11" s="43"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="99" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="100">
+      <c r="B12" s="41">
         <v>292.7</v>
       </c>
-      <c r="C12" s="100">
+      <c r="C12" s="41">
         <v>328.68</v>
       </c>
-      <c r="D12" s="100">
+      <c r="D12" s="41">
         <v>43.8</v>
       </c>
-      <c r="E12" s="100">
+      <c r="E12" s="41">
         <v>5900</v>
       </c>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="I12" s="102">
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="I12" s="43">
         <f t="shared" si="0"/>
         <v>-1.807454898884935E-3</v>
       </c>
-      <c r="J12" s="102">
+      <c r="J12" s="43">
         <f t="shared" si="1"/>
         <v>3.3478406427858189E-4</v>
       </c>
-      <c r="K12" s="102">
+      <c r="K12" s="43">
         <f t="shared" si="2"/>
         <v>2.283626398720715E-4</v>
       </c>
-      <c r="L12" s="102">
+      <c r="L12" s="43">
         <f t="shared" si="3"/>
         <v>-4.7233468286099868E-3</v>
       </c>
-      <c r="M12" s="102">
+      <c r="M12" s="43">
         <f t="shared" si="4"/>
         <v>7.6989862640203916E-5</v>
       </c>
-      <c r="N12" s="102"/>
+      <c r="N12" s="43"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="99" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="100">
+      <c r="B13" s="41">
         <v>295.10000000000002</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C13" s="41">
         <v>329.36</v>
       </c>
-      <c r="D13" s="100">
+      <c r="D13" s="41">
         <v>43.77</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E13" s="41">
         <v>5916</v>
       </c>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="I13" s="102">
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="I13" s="43">
         <f t="shared" si="0"/>
         <v>8.199521694567934E-3</v>
       </c>
-      <c r="J13" s="102">
+      <c r="J13" s="43">
         <f t="shared" si="1"/>
         <v>2.0688815869538968E-3</v>
       </c>
-      <c r="K13" s="102">
+      <c r="K13" s="43">
         <f t="shared" si="2"/>
         <v>-6.849315068491789E-4</v>
       </c>
-      <c r="L13" s="102">
+      <c r="L13" s="43">
         <f t="shared" si="3"/>
         <v>2.7118644067796612E-3</v>
       </c>
-      <c r="M13" s="102">
+      <c r="M13" s="43">
         <f t="shared" si="4"/>
         <v>8.7173284663756307E-4</v>
       </c>
-      <c r="N13" s="102"/>
+      <c r="N13" s="43"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="99" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="100">
+      <c r="B14" s="41">
         <v>298.32</v>
       </c>
-      <c r="C14" s="100">
+      <c r="C14" s="41">
         <v>334.5</v>
       </c>
-      <c r="D14" s="100">
+      <c r="D14" s="41">
         <v>44.24</v>
       </c>
-      <c r="E14" s="100">
+      <c r="E14" s="41">
         <v>5908</v>
       </c>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="I14" s="102">
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="I14" s="43">
         <f t="shared" si="0"/>
         <v>1.0911555404947374E-2</v>
       </c>
-      <c r="J14" s="102">
+      <c r="J14" s="43">
         <f t="shared" si="1"/>
         <v>1.5606023803740546E-2</v>
       </c>
-      <c r="K14" s="102">
+      <c r="K14" s="43">
         <f t="shared" si="2"/>
         <v>1.073794836646102E-2</v>
       </c>
-      <c r="L14" s="102">
+      <c r="L14" s="43">
         <f t="shared" si="3"/>
         <v>-1.3522650439486139E-3</v>
       </c>
-      <c r="M14" s="102">
+      <c r="M14" s="43">
         <f t="shared" si="4"/>
         <v>1.2108812648473254E-2</v>
       </c>
-      <c r="N14" s="102"/>
-      <c r="P14" s="103" t="s">
+      <c r="N14" s="43"/>
+      <c r="P14" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="Q14" s="103" t="s">
+      <c r="Q14" s="44" t="s">
         <v>112</v>
       </c>
       <c r="R14">
@@ -23905,46 +23955,46 @@
         <v>0.6326580789270414</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="99" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="100">
+      <c r="B15" s="41">
         <v>295.05</v>
       </c>
-      <c r="C15" s="100">
+      <c r="C15" s="41">
         <v>334.9</v>
       </c>
-      <c r="D15" s="100">
+      <c r="D15" s="41">
         <v>44.08</v>
       </c>
-      <c r="E15" s="100">
+      <c r="E15" s="41">
         <v>5924</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="I15" s="102">
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="I15" s="43">
         <f t="shared" si="0"/>
         <v>-1.0961383748994307E-2</v>
       </c>
-      <c r="J15" s="102">
+      <c r="J15" s="43">
         <f t="shared" si="1"/>
         <v>1.1958146487293789E-3</v>
       </c>
-      <c r="K15" s="102">
+      <c r="K15" s="43">
         <f t="shared" si="2"/>
         <v>-3.6166365280290162E-3</v>
       </c>
-      <c r="L15" s="102">
+      <c r="L15" s="43">
         <f t="shared" si="3"/>
         <v>2.7081922816519972E-3</v>
       </c>
-      <c r="M15" s="102">
+      <c r="M15" s="43">
         <f t="shared" si="4"/>
         <v>-2.9297143483156792E-3</v>
       </c>
-      <c r="N15" s="102"/>
-      <c r="Q15" s="103" t="s">
+      <c r="N15" s="43"/>
+      <c r="Q15" s="44" t="s">
         <v>113</v>
       </c>
       <c r="R15">
@@ -23952,46 +24002,46 @@
         <v>7.3181342779958108E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="99" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="100">
+      <c r="B16" s="41">
         <v>293.68</v>
       </c>
-      <c r="C16" s="100">
+      <c r="C16" s="41">
         <v>332.69</v>
       </c>
-      <c r="D16" s="100">
+      <c r="D16" s="41">
         <v>44.02</v>
       </c>
-      <c r="E16" s="100">
+      <c r="E16" s="41">
         <v>5948</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="I16" s="102">
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="I16" s="43">
         <f t="shared" si="0"/>
         <v>-4.6432807998644451E-3</v>
       </c>
-      <c r="J16" s="102">
+      <c r="J16" s="43">
         <f t="shared" si="1"/>
         <v>-6.5989847715735434E-3</v>
       </c>
-      <c r="K16" s="102">
+      <c r="K16" s="43">
         <f t="shared" si="2"/>
         <v>-1.3611615245007979E-3</v>
       </c>
-      <c r="L16" s="102">
+      <c r="L16" s="43">
         <f t="shared" si="3"/>
         <v>4.0513166779203242E-3</v>
       </c>
-      <c r="M16" s="102">
+      <c r="M16" s="43">
         <f t="shared" si="4"/>
         <v>-3.1113524724750426E-3</v>
       </c>
-      <c r="N16" s="102"/>
-      <c r="Q16" s="103" t="s">
+      <c r="N16" s="43"/>
+      <c r="Q16" s="44" t="s">
         <v>11</v>
       </c>
       <c r="R16">
@@ -23999,46 +24049,46 @@
         <v>4.9070389193908139E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="99" t="s">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="100">
+      <c r="B17" s="41">
         <v>292.57</v>
       </c>
-      <c r="C17" s="100">
+      <c r="C17" s="41">
         <v>325.67</v>
       </c>
-      <c r="D17" s="100">
+      <c r="D17" s="41">
         <v>43.87</v>
       </c>
-      <c r="E17" s="100">
+      <c r="E17" s="41">
         <v>5972</v>
       </c>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="I17" s="102">
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="I17" s="43">
         <f t="shared" si="0"/>
         <v>-3.7796240806320268E-3</v>
       </c>
-      <c r="J17" s="102">
+      <c r="J17" s="43">
         <f t="shared" si="1"/>
         <v>-2.1100724398088255E-2</v>
       </c>
-      <c r="K17" s="102">
+      <c r="K17" s="43">
         <f t="shared" si="2"/>
         <v>-3.407542026351787E-3</v>
       </c>
-      <c r="L17" s="102">
+      <c r="L17" s="43">
         <f t="shared" si="3"/>
         <v>4.0349697377269674E-3</v>
       </c>
-      <c r="M17" s="102">
+      <c r="M17" s="43">
         <f t="shared" si="4"/>
         <v>-8.3669756199289923E-3</v>
       </c>
-      <c r="N17" s="102"/>
-      <c r="Q17" s="103" t="s">
+      <c r="N17" s="43"/>
+      <c r="Q17" s="44" t="s">
         <v>116</v>
       </c>
       <c r="R17">
@@ -24046,187 +24096,187 @@
         <v>0.99999999227398928</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="99" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="100">
+      <c r="B18" s="41">
         <v>297.69</v>
       </c>
-      <c r="C18" s="100">
+      <c r="C18" s="41">
         <v>329.22</v>
       </c>
-      <c r="D18" s="100">
+      <c r="D18" s="41">
         <v>43.99</v>
       </c>
-      <c r="E18" s="100">
+      <c r="E18" s="41">
         <v>6026</v>
       </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="I18" s="102">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="I18" s="43">
         <f t="shared" si="0"/>
         <v>1.7500085449636001E-2</v>
       </c>
-      <c r="J18" s="102">
+      <c r="J18" s="43">
         <f t="shared" si="1"/>
         <v>1.0900604906807538E-2</v>
       </c>
-      <c r="K18" s="102">
+      <c r="K18" s="43">
         <f t="shared" si="2"/>
         <v>2.7353544563484054E-3</v>
       </c>
-      <c r="L18" s="102">
+      <c r="L18" s="43">
         <f t="shared" si="3"/>
         <v>9.0421969189551244E-3</v>
       </c>
-      <c r="M18" s="102">
+      <c r="M18" s="43">
         <f t="shared" si="4"/>
         <v>6.3215509987512635E-3</v>
       </c>
-      <c r="N18" s="102"/>
+      <c r="N18" s="43"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="99" t="s">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="100">
+      <c r="B19" s="41">
         <v>298.7</v>
       </c>
-      <c r="C19" s="100">
+      <c r="C19" s="41">
         <v>324.83</v>
       </c>
-      <c r="D19" s="100">
+      <c r="D19" s="41">
         <v>44.26</v>
       </c>
-      <c r="E19" s="100">
+      <c r="E19" s="41">
         <v>6090</v>
       </c>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="I19" s="102">
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="I19" s="43">
         <f t="shared" si="0"/>
         <v>3.3927911585877623E-3</v>
       </c>
-      <c r="J19" s="102">
+      <c r="J19" s="43">
         <f t="shared" si="1"/>
         <v>-1.3334548326347253E-2</v>
       </c>
-      <c r="K19" s="102">
+      <c r="K19" s="43">
         <f t="shared" si="2"/>
         <v>6.1377585814957041E-3</v>
       </c>
-      <c r="L19" s="102">
+      <c r="L19" s="43">
         <f t="shared" si="3"/>
         <v>1.0620643876535016E-2</v>
       </c>
-      <c r="M19" s="102">
+      <c r="M19" s="43">
         <f t="shared" si="4"/>
         <v>4.7198680506448185E-4</v>
       </c>
-      <c r="N19" s="102"/>
+      <c r="N19" s="43"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="99" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="100">
+      <c r="B20" s="41">
         <v>296.7</v>
       </c>
-      <c r="C20" s="100">
+      <c r="C20" s="41">
         <v>324.57</v>
       </c>
-      <c r="D20" s="100">
+      <c r="D20" s="41">
         <v>44</v>
       </c>
-      <c r="E20" s="100">
+      <c r="E20" s="41">
         <v>6508</v>
       </c>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="I20" s="102">
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="I20" s="43">
         <f t="shared" si="0"/>
         <v>-6.6956812855708068E-3</v>
       </c>
-      <c r="J20" s="102">
+      <c r="J20" s="43">
         <f t="shared" si="1"/>
         <v>-8.0041868054056249E-4</v>
       </c>
-      <c r="K20" s="102">
+      <c r="K20" s="43">
         <f t="shared" si="2"/>
         <v>-5.8743786714866254E-3</v>
       </c>
-      <c r="L20" s="102">
+      <c r="L20" s="43">
         <f t="shared" si="3"/>
         <v>6.8637110016420366E-2</v>
       </c>
-      <c r="M20" s="102">
+      <c r="M20" s="43">
         <f t="shared" si="4"/>
         <v>-4.5346464887827381E-3</v>
       </c>
-      <c r="N20" s="102"/>
-      <c r="R20" s="104" t="s">
+      <c r="N20" s="43"/>
+      <c r="R20" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="S20" s="104" t="s">
+      <c r="S20" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="U20" s="103" t="s">
+      <c r="U20" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="V20" s="103" t="s">
+      <c r="V20" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="W20" s="103" t="s">
+      <c r="W20" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="X20" s="103" t="s">
+      <c r="X20" s="44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="99" t="s">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="100">
+      <c r="B21" s="41">
         <v>294.33999999999997</v>
       </c>
-      <c r="C21" s="100">
+      <c r="C21" s="41">
         <v>322.54000000000002</v>
       </c>
-      <c r="D21" s="100">
+      <c r="D21" s="41">
         <v>43.29</v>
       </c>
-      <c r="E21" s="100">
+      <c r="E21" s="41">
         <v>6422</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="I21" s="102">
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="I21" s="43">
         <f t="shared" si="0"/>
         <v>-7.9541624536569391E-3</v>
       </c>
-      <c r="J21" s="102">
+      <c r="J21" s="43">
         <f t="shared" si="1"/>
         <v>-6.2544289367469971E-3</v>
       </c>
-      <c r="K21" s="102">
+      <c r="K21" s="43">
         <f t="shared" si="2"/>
         <v>-1.6136363636363657E-2</v>
       </c>
-      <c r="L21" s="102">
+      <c r="L21" s="43">
         <f t="shared" si="3"/>
         <v>-1.3214505224339274E-2</v>
       </c>
-      <c r="M21" s="102">
+      <c r="M21" s="43">
         <f t="shared" si="4"/>
         <v>-1.2657437509894712E-2</v>
       </c>
-      <c r="N21" s="102"/>
-      <c r="P21" s="103" t="s">
+      <c r="N21" s="43"/>
+      <c r="P21" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="Q21" s="103" t="s">
+      <c r="Q21" s="44" t="s">
         <v>112</v>
       </c>
       <c r="R21">
@@ -24252,46 +24302,46 @@
         <v>4.9070389193908139E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="99" t="s">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="100">
+      <c r="B22" s="41">
         <v>299.66000000000003</v>
       </c>
-      <c r="C22" s="100">
+      <c r="C22" s="41">
         <v>327.41000000000003</v>
       </c>
-      <c r="D22" s="100">
+      <c r="D22" s="41">
         <v>43.61</v>
       </c>
-      <c r="E22" s="100">
+      <c r="E22" s="41">
         <v>6534</v>
       </c>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="I22" s="102">
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="I22" s="43">
         <f t="shared" si="0"/>
         <v>1.8074335802133759E-2</v>
       </c>
-      <c r="J22" s="102">
+      <c r="J22" s="43">
         <f t="shared" si="1"/>
         <v>1.5098902461710188E-2</v>
       </c>
-      <c r="K22" s="102">
+      <c r="K22" s="43">
         <f t="shared" si="2"/>
         <v>7.3920073920073987E-3</v>
       </c>
-      <c r="L22" s="102">
+      <c r="L22" s="43">
         <f t="shared" si="3"/>
         <v>1.7440049828713795E-2</v>
       </c>
-      <c r="M22" s="102">
+      <c r="M22" s="43">
         <f t="shared" si="4"/>
         <v>1.0487617803636683E-2</v>
       </c>
-      <c r="N22" s="102"/>
-      <c r="Q22" s="103" t="s">
+      <c r="N22" s="43"/>
+      <c r="Q22" s="44" t="s">
         <v>113</v>
       </c>
       <c r="R22">
@@ -24314,46 +24364,46 @@
         <v>5.2590292880055685E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="99" t="s">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="100">
+      <c r="B23" s="41">
         <v>305.17</v>
       </c>
-      <c r="C23" s="100">
+      <c r="C23" s="41">
         <v>328.28</v>
       </c>
-      <c r="D23" s="100">
+      <c r="D23" s="41">
         <v>43.14</v>
       </c>
-      <c r="E23" s="100">
+      <c r="E23" s="41">
         <v>6466</v>
       </c>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="I23" s="102">
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="I23" s="43">
         <f t="shared" si="0"/>
         <v>1.8387505839951912E-2</v>
       </c>
-      <c r="J23" s="102">
+      <c r="J23" s="43">
         <f t="shared" si="1"/>
         <v>2.6572187776792025E-3</v>
       </c>
-      <c r="K23" s="102">
+      <c r="K23" s="43">
         <f t="shared" si="2"/>
         <v>-1.0777344645723433E-2</v>
       </c>
-      <c r="L23" s="102">
+      <c r="L23" s="43">
         <f t="shared" si="3"/>
         <v>-1.0407101316192225E-2</v>
       </c>
-      <c r="M23" s="102">
+      <c r="M23" s="43">
         <f t="shared" si="4"/>
         <v>-4.443691214250505E-3</v>
       </c>
-      <c r="N23" s="102"/>
-      <c r="Q23" s="103" t="s">
+      <c r="N23" s="43"/>
+      <c r="Q23" s="44" t="s">
         <v>11</v>
       </c>
       <c r="R23">
@@ -24376,45 +24426,45 @@
         <v>6.0246132992122586E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="99" t="s">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="100">
+      <c r="B24" s="41">
         <v>305.64999999999998</v>
       </c>
-      <c r="C24" s="100">
+      <c r="C24" s="41">
         <v>327.94</v>
       </c>
-      <c r="D24" s="100">
+      <c r="D24" s="41">
         <v>43.62</v>
       </c>
-      <c r="E24" s="100">
+      <c r="E24" s="41">
         <v>6562</v>
       </c>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="I24" s="102">
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="I24" s="43">
         <f t="shared" si="0"/>
         <v>1.5728937968999617E-3</v>
       </c>
-      <c r="J24" s="102">
+      <c r="J24" s="43">
         <f t="shared" si="1"/>
         <v>-1.0357012306566804E-3</v>
       </c>
-      <c r="K24" s="102">
+      <c r="K24" s="43">
         <f t="shared" si="2"/>
         <v>1.1126564673157089E-2</v>
       </c>
-      <c r="L24" s="102">
+      <c r="L24" s="43">
         <f t="shared" si="3"/>
         <v>1.4846891432106402E-2</v>
       </c>
-      <c r="M24" s="102">
+      <c r="M24" s="43">
         <f t="shared" si="4"/>
         <v>6.8907839627058111E-3</v>
       </c>
-      <c r="N24" s="102"/>
+      <c r="N24" s="43"/>
       <c r="U24">
         <v>0.7</v>
       </c>
@@ -24431,45 +24481,45 @@
         <v>7.0628535725392266E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="99" t="s">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="100">
+      <c r="B25" s="41">
         <v>312.89</v>
       </c>
-      <c r="C25" s="100">
+      <c r="C25" s="41">
         <v>334.57</v>
       </c>
-      <c r="D25" s="100">
+      <c r="D25" s="41">
         <v>43.65</v>
       </c>
-      <c r="E25" s="100">
+      <c r="E25" s="41">
         <v>6536</v>
       </c>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="I25" s="102">
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="I25" s="43">
         <f t="shared" si="0"/>
         <v>2.3687223948961261E-2</v>
       </c>
-      <c r="J25" s="102">
+      <c r="J25" s="43">
         <f t="shared" si="1"/>
         <v>2.0217112886503616E-2</v>
       </c>
-      <c r="K25" s="102">
+      <c r="K25" s="43">
         <f t="shared" si="2"/>
         <v>6.8775790921598212E-4</v>
       </c>
-      <c r="L25" s="102">
+      <c r="L25" s="43">
         <f t="shared" si="3"/>
         <v>-3.9622066443157572E-3</v>
       </c>
-      <c r="M25" s="102">
+      <c r="M25" s="43">
         <f t="shared" si="4"/>
         <v>8.1702350637913521E-3</v>
       </c>
-      <c r="N25" s="102"/>
+      <c r="N25" s="43"/>
       <c r="U25">
         <v>0.6</v>
       </c>
@@ -24486,45 +24536,45 @@
         <v>8.2672742085647843E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="99" t="s">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="100">
+      <c r="B26" s="41">
         <v>312.3</v>
       </c>
-      <c r="C26" s="100">
+      <c r="C26" s="41">
         <v>329</v>
       </c>
-      <c r="D26" s="100">
+      <c r="D26" s="41">
         <v>43.72</v>
       </c>
-      <c r="E26" s="100">
+      <c r="E26" s="41">
         <v>6688</v>
       </c>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="I26" s="102">
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="I26" s="43">
         <f t="shared" si="0"/>
         <v>-1.8856467129022181E-3</v>
       </c>
-      <c r="J26" s="102">
+      <c r="J26" s="43">
         <f t="shared" si="1"/>
         <v>-1.6648235047972002E-2</v>
       </c>
-      <c r="K26" s="102">
+      <c r="K26" s="43">
         <f t="shared" si="2"/>
         <v>1.603665521191301E-3</v>
       </c>
-      <c r="L26" s="102">
+      <c r="L26" s="43">
         <f t="shared" si="3"/>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="M26" s="102">
+      <c r="M26" s="43">
         <f t="shared" si="4"/>
         <v>-3.788485257462784E-3</v>
       </c>
-      <c r="N26" s="102"/>
+      <c r="N26" s="43"/>
       <c r="U26">
         <v>0.5</v>
       </c>
@@ -24541,45 +24591,45 @@
         <v>9.5924293845462416E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="99" t="s">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="100">
+      <c r="B27" s="41">
         <v>317.94</v>
       </c>
-      <c r="C27" s="100">
+      <c r="C27" s="41">
         <v>329.71</v>
       </c>
-      <c r="D27" s="100">
+      <c r="D27" s="41">
         <v>44</v>
       </c>
-      <c r="E27" s="100">
+      <c r="E27" s="41">
         <v>6780</v>
       </c>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="I27" s="102">
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="I27" s="43">
         <f t="shared" si="0"/>
         <v>1.8059558117194962E-2</v>
       </c>
-      <c r="J27" s="102">
+      <c r="J27" s="43">
         <f t="shared" si="1"/>
         <v>2.1580547112461383E-3</v>
       </c>
-      <c r="K27" s="102">
+      <c r="K27" s="43">
         <f t="shared" si="2"/>
         <v>6.4043915827996598E-3</v>
       </c>
-      <c r="L27" s="102">
+      <c r="L27" s="43">
         <f t="shared" si="3"/>
         <v>1.375598086124402E-2</v>
       </c>
-      <c r="M27" s="102">
+      <c r="M27" s="43">
         <f t="shared" si="4"/>
         <v>6.2583319313586749E-3</v>
       </c>
-      <c r="N27" s="102"/>
+      <c r="N27" s="43"/>
       <c r="U27">
         <v>0.4</v>
       </c>
@@ -24596,45 +24646,45 @@
         <v>0.10976075348775749</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="99" t="s">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="100">
+      <c r="B28" s="41">
         <v>328.93</v>
       </c>
-      <c r="C28" s="100">
+      <c r="C28" s="41">
         <v>329.37</v>
       </c>
-      <c r="D28" s="100">
+      <c r="D28" s="41">
         <v>45</v>
       </c>
-      <c r="E28" s="100">
+      <c r="E28" s="41">
         <v>6942</v>
       </c>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="I28" s="102">
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="I28" s="43">
         <f t="shared" si="0"/>
         <v>3.456627036547779E-2</v>
       </c>
-      <c r="J28" s="102">
+      <c r="J28" s="43">
         <f t="shared" si="1"/>
         <v>-1.0312092444875042E-3</v>
       </c>
-      <c r="K28" s="102">
+      <c r="K28" s="43">
         <f t="shared" si="2"/>
         <v>2.2727272727272728E-2</v>
       </c>
-      <c r="L28" s="102">
+      <c r="L28" s="43">
         <f t="shared" si="3"/>
         <v>2.3893805309734513E-2</v>
       </c>
-      <c r="M28" s="102">
+      <c r="M28" s="43">
         <f t="shared" si="4"/>
         <v>1.7164747585204625E-2</v>
       </c>
-      <c r="N28" s="102"/>
+      <c r="N28" s="43"/>
       <c r="U28">
         <v>0.3</v>
       </c>
@@ -24651,45 +24701,45 @@
         <v>0.12405924237253364</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="99" t="s">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="100">
+      <c r="B29" s="41">
         <v>327.73</v>
       </c>
-      <c r="C29" s="100">
+      <c r="C29" s="41">
         <v>325.95999999999998</v>
       </c>
-      <c r="D29" s="100">
+      <c r="D29" s="41">
         <v>44.52</v>
       </c>
-      <c r="E29" s="100">
+      <c r="E29" s="41">
         <v>6460</v>
       </c>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="I29" s="102">
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="I29" s="43">
         <f t="shared" si="0"/>
         <v>-3.6481926245705426E-3</v>
       </c>
-      <c r="J29" s="102">
+      <c r="J29" s="43">
         <f t="shared" si="1"/>
         <v>-1.0353098339253802E-2</v>
       </c>
-      <c r="K29" s="102">
+      <c r="K29" s="43">
         <f t="shared" si="2"/>
         <v>-1.0666666666666597E-2</v>
       </c>
-      <c r="L29" s="102">
+      <c r="L29" s="43">
         <f t="shared" si="3"/>
         <v>-6.9432440218957073E-2</v>
       </c>
-      <c r="M29" s="102">
+      <c r="M29" s="43">
         <f t="shared" si="4"/>
         <v>-9.9553486343112903E-3</v>
       </c>
-      <c r="N29" s="102"/>
+      <c r="N29" s="43"/>
       <c r="U29">
         <v>0.2</v>
       </c>
@@ -24706,45 +24756,45 @@
         <v>0.13870401083230333</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="99" t="s">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="100">
+      <c r="B30" s="41">
         <v>327.60000000000002</v>
       </c>
-      <c r="C30" s="100">
+      <c r="C30" s="41">
         <v>331.7</v>
       </c>
-      <c r="D30" s="100">
+      <c r="D30" s="41">
         <v>44.88</v>
       </c>
-      <c r="E30" s="100">
+      <c r="E30" s="41">
         <v>6702</v>
       </c>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="I30" s="102">
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="I30" s="43">
         <f t="shared" si="0"/>
         <v>-3.9666798889328244E-4</v>
       </c>
-      <c r="J30" s="102">
+      <c r="J30" s="43">
         <f t="shared" si="1"/>
         <v>1.7609522640814852E-2</v>
       </c>
-      <c r="K30" s="102">
+      <c r="K30" s="43">
         <f t="shared" si="2"/>
         <v>8.0862533692722238E-3</v>
       </c>
-      <c r="L30" s="102">
+      <c r="L30" s="43">
         <f t="shared" si="3"/>
         <v>3.7461300309597524E-2</v>
       </c>
-      <c r="M30" s="102">
+      <c r="M30" s="43">
         <f t="shared" si="4"/>
         <v>9.9836242419554209E-3</v>
       </c>
-      <c r="N30" s="102"/>
+      <c r="N30" s="43"/>
       <c r="U30">
         <v>0.1</v>
       </c>
@@ -24761,45 +24811,45 @@
         <v>0.15352190399533519</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="99" t="s">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="100">
+      <c r="B31" s="41">
         <v>324.57</v>
       </c>
-      <c r="C31" s="100">
+      <c r="C31" s="41">
         <v>326.01</v>
       </c>
-      <c r="D31" s="100">
+      <c r="D31" s="41">
         <v>44.49</v>
       </c>
-      <c r="E31" s="100">
+      <c r="E31" s="41">
         <v>6524</v>
       </c>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="I31" s="102">
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="I31" s="43">
         <f t="shared" si="0"/>
         <v>-9.2490842490843394E-3</v>
       </c>
-      <c r="J31" s="102">
+      <c r="J31" s="43">
         <f t="shared" si="1"/>
         <v>-1.7154054868857394E-2</v>
       </c>
-      <c r="K31" s="102">
+      <c r="K31" s="43">
         <f t="shared" si="2"/>
         <v>-8.6898395721925255E-3</v>
       </c>
-      <c r="L31" s="102">
+      <c r="L31" s="43">
         <f t="shared" si="3"/>
         <v>-2.6559236048940615E-2</v>
       </c>
-      <c r="M31" s="102">
+      <c r="M31" s="43">
         <f t="shared" si="4"/>
         <v>-1.1096271974943339E-2</v>
       </c>
-      <c r="N31" s="102"/>
+      <c r="N31" s="43"/>
       <c r="U31">
         <v>0</v>
       </c>
@@ -24816,645 +24866,645 @@
         <v>0.16851373251731383</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="99" t="s">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="100">
+      <c r="B32" s="41">
         <v>326.43</v>
       </c>
-      <c r="C32" s="100">
+      <c r="C32" s="41">
         <v>326.25</v>
       </c>
-      <c r="D32" s="100">
+      <c r="D32" s="41">
         <v>45.5</v>
       </c>
-      <c r="E32" s="100">
+      <c r="E32" s="41">
         <v>6658</v>
       </c>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="I32" s="102">
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="I32" s="43">
         <f t="shared" si="0"/>
         <v>5.7306590257880079E-3</v>
       </c>
-      <c r="J32" s="102">
+      <c r="J32" s="43">
         <f t="shared" si="1"/>
         <v>7.3617373700196034E-4</v>
       </c>
-      <c r="K32" s="102">
+      <c r="K32" s="43">
         <f t="shared" si="2"/>
         <v>2.2701730726005797E-2</v>
       </c>
-      <c r="L32" s="102">
+      <c r="L32" s="43">
         <f t="shared" si="3"/>
         <v>2.0539546290619253E-2</v>
       </c>
-      <c r="M32" s="102">
+      <c r="M32" s="43">
         <f t="shared" si="4"/>
         <v>1.5076919010920139E-2</v>
       </c>
-      <c r="N32" s="102"/>
+      <c r="N32" s="43"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="99" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="100">
+      <c r="B33" s="41">
         <v>332.75</v>
       </c>
-      <c r="C33" s="100">
+      <c r="C33" s="41">
         <v>327.41000000000003</v>
       </c>
-      <c r="D33" s="100">
+      <c r="D33" s="41">
         <v>45.01</v>
       </c>
-      <c r="E33" s="100">
+      <c r="E33" s="41">
         <v>6740</v>
       </c>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="I33" s="102">
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="I33" s="43">
         <f t="shared" si="0"/>
         <v>1.9360965597524715E-2</v>
       </c>
-      <c r="J33" s="102">
+      <c r="J33" s="43">
         <f t="shared" si="1"/>
         <v>3.5555555555556321E-3</v>
       </c>
-      <c r="K33" s="102">
+      <c r="K33" s="43">
         <f t="shared" si="2"/>
         <v>-1.0769230769230812E-2</v>
       </c>
-      <c r="L33" s="102">
+      <c r="L33" s="43">
         <f t="shared" si="3"/>
         <v>1.2316010814058276E-2</v>
       </c>
-      <c r="M33" s="102">
+      <c r="M33" s="43">
         <f t="shared" si="4"/>
         <v>-4.1018819922774112E-3</v>
       </c>
-      <c r="N33" s="102"/>
+      <c r="N33" s="43"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="99" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="100">
+      <c r="B34" s="41">
         <v>338.98</v>
       </c>
-      <c r="C34" s="100">
+      <c r="C34" s="41">
         <v>326.48</v>
       </c>
-      <c r="D34" s="100">
+      <c r="D34" s="41">
         <v>44.79</v>
       </c>
-      <c r="E34" s="100">
+      <c r="E34" s="41">
         <v>6828</v>
       </c>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="I34" s="102">
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="I34" s="43">
         <f t="shared" si="0"/>
         <v>1.8722764838467371E-2</v>
       </c>
-      <c r="J34" s="102">
+      <c r="J34" s="43">
         <f t="shared" si="1"/>
         <v>-2.840475245105546E-3</v>
       </c>
-      <c r="K34" s="102">
+      <c r="K34" s="43">
         <f t="shared" si="2"/>
         <v>-4.8878027105087509E-3</v>
       </c>
-      <c r="L34" s="102">
+      <c r="L34" s="43">
         <f t="shared" si="3"/>
         <v>1.3056379821958458E-2</v>
       </c>
-      <c r="M34" s="102">
+      <c r="M34" s="43">
         <f t="shared" si="4"/>
         <v>-2.2185522615242692E-3</v>
       </c>
-      <c r="N34" s="102"/>
+      <c r="N34" s="43"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="99" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="100">
+      <c r="B35" s="41">
         <v>343.34</v>
       </c>
-      <c r="C35" s="100">
+      <c r="C35" s="41">
         <v>333.51</v>
       </c>
-      <c r="D35" s="100">
+      <c r="D35" s="41">
         <v>44.66</v>
       </c>
-      <c r="E35" s="100">
+      <c r="E35" s="41">
         <v>6806</v>
       </c>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="I35" s="102">
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="I35" s="43">
         <f t="shared" si="0"/>
         <v>1.2862115759041703E-2</v>
       </c>
-      <c r="J35" s="102">
+      <c r="J35" s="43">
         <f t="shared" si="1"/>
         <v>2.1532712570448333E-2</v>
       </c>
-      <c r="K35" s="102">
+      <c r="K35" s="43">
         <f t="shared" si="2"/>
         <v>-2.9024335789239243E-3</v>
       </c>
-      <c r="L35" s="102">
+      <c r="L35" s="43">
         <f t="shared" si="3"/>
         <v>-3.2220269478617459E-3</v>
       </c>
-      <c r="M35" s="102">
+      <c r="M35" s="43">
         <f t="shared" si="4"/>
         <v>5.3027196151767993E-3</v>
       </c>
-      <c r="N35" s="102"/>
+      <c r="N35" s="43"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="99" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="100">
+      <c r="B36" s="41">
         <v>338.5</v>
       </c>
-      <c r="C36" s="100">
+      <c r="C36" s="41">
         <v>326.99</v>
       </c>
-      <c r="D36" s="100">
+      <c r="D36" s="41">
         <v>44.51</v>
       </c>
-      <c r="E36" s="100">
+      <c r="E36" s="41">
         <v>6730</v>
       </c>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="I36" s="102">
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="I36" s="43">
         <f t="shared" si="0"/>
         <v>-1.4096813654103733E-2</v>
       </c>
-      <c r="J36" s="102">
+      <c r="J36" s="43">
         <f t="shared" si="1"/>
         <v>-1.9549638691493454E-2</v>
       </c>
-      <c r="K36" s="102">
+      <c r="K36" s="43">
         <f t="shared" si="2"/>
         <v>-3.3587102552619479E-3</v>
       </c>
-      <c r="L36" s="102">
+      <c r="L36" s="43">
         <f t="shared" si="3"/>
         <v>-1.1166617690273288E-2</v>
       </c>
-      <c r="M36" s="102">
+      <c r="M36" s="43">
         <f t="shared" si="4"/>
         <v>-8.8215078176750918E-3</v>
       </c>
-      <c r="N36" s="102"/>
+      <c r="N36" s="43"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="99" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="100">
+      <c r="B37" s="41">
         <v>334.5</v>
       </c>
-      <c r="C37" s="100">
+      <c r="C37" s="41">
         <v>329.56</v>
       </c>
-      <c r="D37" s="100">
+      <c r="D37" s="41">
         <v>44</v>
       </c>
-      <c r="E37" s="100">
+      <c r="E37" s="41">
         <v>6678</v>
       </c>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="I37" s="102">
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="I37" s="43">
         <f t="shared" si="0"/>
         <v>-1.1816838995568686E-2</v>
       </c>
-      <c r="J37" s="102">
+      <c r="J37" s="43">
         <f t="shared" si="1"/>
         <v>7.8595675708737055E-3</v>
       </c>
-      <c r="K37" s="102">
+      <c r="K37" s="43">
         <f t="shared" si="2"/>
         <v>-1.1458099303527253E-2</v>
       </c>
-      <c r="L37" s="102">
+      <c r="L37" s="43">
         <f t="shared" si="3"/>
         <v>-7.7265973254086184E-3</v>
       </c>
-      <c r="M37" s="102">
+      <c r="M37" s="43">
         <f t="shared" si="4"/>
         <v>-6.1113339234369788E-3</v>
       </c>
-      <c r="N37" s="102"/>
+      <c r="N37" s="43"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="99" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="100">
+      <c r="B38" s="41">
         <v>325.7</v>
       </c>
-      <c r="C38" s="100">
+      <c r="C38" s="41">
         <v>326.92</v>
       </c>
-      <c r="D38" s="100">
+      <c r="D38" s="41">
         <v>43.68</v>
       </c>
-      <c r="E38" s="100">
+      <c r="E38" s="41">
         <v>6410</v>
       </c>
-      <c r="F38" s="100"/>
-      <c r="G38" s="100"/>
-      <c r="I38" s="102">
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="I38" s="43">
         <f t="shared" si="0"/>
         <v>-2.6307922272047868E-2</v>
       </c>
-      <c r="J38" s="102">
+      <c r="J38" s="43">
         <f t="shared" si="1"/>
         <v>-8.0106809078771286E-3</v>
       </c>
-      <c r="K38" s="102">
+      <c r="K38" s="43">
         <f t="shared" si="2"/>
         <v>-7.2727272727272788E-3</v>
       </c>
-      <c r="L38" s="102">
+      <c r="L38" s="43">
         <f t="shared" si="3"/>
         <v>-4.0131775980832583E-2</v>
       </c>
-      <c r="M38" s="102">
+      <c r="M38" s="43">
         <f t="shared" si="4"/>
         <v>-9.1706107709058314E-3</v>
       </c>
-      <c r="N38" s="102"/>
+      <c r="N38" s="43"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="99" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="100">
+      <c r="B39" s="41">
         <v>335.3</v>
       </c>
-      <c r="C39" s="100">
+      <c r="C39" s="41">
         <v>323.25</v>
       </c>
-      <c r="D39" s="100">
+      <c r="D39" s="41">
         <v>44</v>
       </c>
-      <c r="E39" s="100">
+      <c r="E39" s="41">
         <v>7020</v>
       </c>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="I39" s="102">
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="I39" s="43">
         <f t="shared" si="0"/>
         <v>2.9474976972674313E-2</v>
       </c>
-      <c r="J39" s="102">
+      <c r="J39" s="43">
         <f t="shared" si="1"/>
         <v>-1.1225988009298958E-2</v>
       </c>
-      <c r="K39" s="102">
+      <c r="K39" s="43">
         <f t="shared" si="2"/>
         <v>7.3260073260073329E-3</v>
       </c>
-      <c r="L39" s="102">
+      <c r="L39" s="43">
         <f t="shared" si="3"/>
         <v>9.5163806552262087E-2</v>
       </c>
-      <c r="M39" s="102">
+      <c r="M39" s="43">
         <f t="shared" si="4"/>
         <v>4.1297924229401111E-3</v>
       </c>
-      <c r="N39" s="102"/>
+      <c r="N39" s="43"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="99" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="100">
+      <c r="B40" s="41">
         <v>340.59</v>
       </c>
-      <c r="C40" s="100">
+      <c r="C40" s="41">
         <v>327.8</v>
       </c>
-      <c r="D40" s="100">
+      <c r="D40" s="41">
         <v>43.85</v>
       </c>
-      <c r="E40" s="100">
+      <c r="E40" s="41">
         <v>7018</v>
       </c>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="I40" s="102">
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="I40" s="43">
         <f t="shared" si="0"/>
         <v>1.5776916194452619E-2</v>
       </c>
-      <c r="J40" s="102">
+      <c r="J40" s="43">
         <f t="shared" si="1"/>
         <v>1.4075792730085109E-2</v>
       </c>
-      <c r="K40" s="102">
+      <c r="K40" s="43">
         <f t="shared" si="2"/>
         <v>-3.4090909090908768E-3</v>
       </c>
-      <c r="L40" s="102">
+      <c r="L40" s="43">
         <f t="shared" si="3"/>
         <v>-2.8490028490028488E-4</v>
       </c>
-      <c r="M40" s="102">
+      <c r="M40" s="43">
         <f t="shared" si="4"/>
         <v>3.1650861060514997E-3</v>
       </c>
-      <c r="N40" s="102"/>
+      <c r="N40" s="43"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="99" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="100">
+      <c r="B41" s="41">
         <v>343.47</v>
       </c>
-      <c r="C41" s="100">
+      <c r="C41" s="41">
         <v>327.02</v>
       </c>
-      <c r="D41" s="100">
+      <c r="D41" s="41">
         <v>44.5</v>
       </c>
-      <c r="E41" s="100">
+      <c r="E41" s="41">
         <v>7132</v>
       </c>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="I41" s="102">
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="I41" s="43">
         <f t="shared" si="0"/>
         <v>8.4559147361932315E-3</v>
       </c>
-      <c r="J41" s="102">
+      <c r="J41" s="43">
         <f t="shared" si="1"/>
         <v>-2.3794996949360265E-3</v>
       </c>
-      <c r="K41" s="102">
+      <c r="K41" s="43">
         <f t="shared" si="2"/>
         <v>1.4823261117445806E-2</v>
       </c>
-      <c r="L41" s="102">
+      <c r="L41" s="43">
         <f t="shared" si="3"/>
         <v>1.6243944143630663E-2</v>
       </c>
-      <c r="M41" s="102">
+      <c r="M41" s="43">
         <f t="shared" si="4"/>
         <v>9.4673393857250439E-3</v>
       </c>
-      <c r="N41" s="102"/>
+      <c r="N41" s="43"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="99" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="100">
+      <c r="B42" s="41">
         <v>344.29</v>
       </c>
-      <c r="C42" s="100">
+      <c r="C42" s="41">
         <v>325.44</v>
       </c>
-      <c r="D42" s="100">
+      <c r="D42" s="41">
         <v>45.02</v>
       </c>
-      <c r="E42" s="100">
+      <c r="E42" s="41">
         <v>7074</v>
       </c>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
-      <c r="I42" s="102">
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="I42" s="43">
         <f t="shared" si="0"/>
         <v>2.3873991906134249E-3</v>
       </c>
-      <c r="J42" s="102">
+      <c r="J42" s="43">
         <f t="shared" si="1"/>
         <v>-4.8315087762215896E-3</v>
       </c>
-      <c r="K42" s="102">
+      <c r="K42" s="43">
         <f t="shared" si="2"/>
         <v>1.1685393258427037E-2</v>
       </c>
-      <c r="L42" s="102">
+      <c r="L42" s="43">
         <f t="shared" si="3"/>
         <v>-8.1323611890072919E-3</v>
       </c>
-      <c r="M42" s="102">
+      <c r="M42" s="43">
         <f t="shared" si="4"/>
         <v>6.2598737191802527E-3</v>
       </c>
-      <c r="N42" s="102"/>
+      <c r="N42" s="43"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="99" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="100">
+      <c r="B43" s="41">
         <v>355.19</v>
       </c>
-      <c r="C43" s="100">
+      <c r="C43" s="41">
         <v>331.68</v>
       </c>
-      <c r="D43" s="100">
+      <c r="D43" s="41">
         <v>45.15</v>
       </c>
-      <c r="E43" s="100">
+      <c r="E43" s="41">
         <v>7064</v>
       </c>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="I43" s="102">
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="I43" s="43">
         <f t="shared" si="0"/>
         <v>3.1659356937465438E-2</v>
       </c>
-      <c r="J43" s="102">
+      <c r="J43" s="43">
         <f t="shared" si="1"/>
         <v>1.9174041297935131E-2</v>
       </c>
-      <c r="K43" s="102">
+      <c r="K43" s="43">
         <f t="shared" si="2"/>
         <v>2.8876055086627154E-3</v>
       </c>
-      <c r="L43" s="102">
+      <c r="L43" s="43">
         <f t="shared" si="3"/>
         <v>-1.4136273678258412E-3</v>
       </c>
-      <c r="M43" s="102">
+      <c r="M43" s="43">
         <f t="shared" si="4"/>
         <v>9.980361647951538E-3</v>
       </c>
-      <c r="N43" s="102"/>
+      <c r="N43" s="43"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="99" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="100">
+      <c r="B44" s="41">
         <v>354.07</v>
       </c>
-      <c r="C44" s="100">
+      <c r="C44" s="41">
         <v>329.3</v>
       </c>
-      <c r="D44" s="100">
+      <c r="D44" s="41">
         <v>45.8</v>
       </c>
-      <c r="E44" s="100">
+      <c r="E44" s="41">
         <v>6970</v>
       </c>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="I44" s="102">
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="I44" s="43">
         <f t="shared" si="0"/>
         <v>-3.1532419268560617E-3</v>
       </c>
-      <c r="J44" s="102">
+      <c r="J44" s="43">
         <f t="shared" si="1"/>
         <v>-7.1755909310178348E-3</v>
       </c>
-      <c r="K44" s="102">
+      <c r="K44" s="43">
         <f t="shared" si="2"/>
         <v>1.4396456256921342E-2</v>
       </c>
-      <c r="L44" s="102">
+      <c r="L44" s="43">
         <f t="shared" si="3"/>
         <v>-1.3306908267270668E-2</v>
       </c>
-      <c r="M44" s="102">
+      <c r="M44" s="43">
         <f t="shared" si="4"/>
         <v>6.8297649031009841E-3</v>
       </c>
-      <c r="N44" s="102"/>
+      <c r="N44" s="43"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="99" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="100">
+      <c r="B45" s="41">
         <v>360.88</v>
       </c>
-      <c r="C45" s="100">
+      <c r="C45" s="41">
         <v>328.43</v>
       </c>
-      <c r="D45" s="100">
+      <c r="D45" s="41">
         <v>45.69</v>
       </c>
-      <c r="E45" s="100">
+      <c r="E45" s="41">
         <v>6850</v>
       </c>
-      <c r="F45" s="100"/>
-      <c r="G45" s="100"/>
-      <c r="I45" s="102">
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="I45" s="43">
         <f t="shared" si="0"/>
         <v>1.9233484904115011E-2</v>
       </c>
-      <c r="J45" s="102">
+      <c r="J45" s="43">
         <f t="shared" si="1"/>
         <v>-2.64196781050715E-3</v>
       </c>
-      <c r="K45" s="102">
+      <c r="K45" s="43">
         <f t="shared" si="2"/>
         <v>-2.4017467248908173E-3</v>
       </c>
-      <c r="L45" s="102">
+      <c r="L45" s="43">
         <f t="shared" si="3"/>
         <v>-1.721664275466284E-2</v>
       </c>
-      <c r="M45" s="102">
+      <c r="M45" s="43">
         <f t="shared" si="4"/>
         <v>-5.4505002512510278E-4</v>
       </c>
-      <c r="N45" s="102"/>
+      <c r="N45" s="43"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="99" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="100">
+      <c r="B46" s="41">
         <v>360.8</v>
       </c>
-      <c r="C46" s="100">
+      <c r="C46" s="41">
         <v>340.99</v>
       </c>
-      <c r="D46" s="100">
+      <c r="D46" s="41">
         <v>45.62</v>
       </c>
-      <c r="E46" s="100">
+      <c r="E46" s="41">
         <v>7000</v>
       </c>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="I46" s="102">
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="I46" s="43">
         <f t="shared" si="0"/>
         <v>-2.2168033695406806E-4</v>
       </c>
-      <c r="J46" s="102">
+      <c r="J46" s="43">
         <f t="shared" si="1"/>
         <v>3.8242547879304575E-2</v>
       </c>
-      <c r="K46" s="102">
+      <c r="K46" s="43">
         <f t="shared" si="2"/>
         <v>-1.5320639089516368E-3</v>
       </c>
-      <c r="L46" s="102">
+      <c r="L46" s="43">
         <f t="shared" si="3"/>
         <v>2.1897810218978103E-2</v>
       </c>
-      <c r="M46" s="102">
+      <c r="M46" s="43">
         <f t="shared" si="4"/>
         <v>9.6589750798821671E-3</v>
       </c>
-      <c r="N46" s="102"/>
+      <c r="N46" s="43"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="99" t="s">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="100">
+      <c r="B47" s="41">
         <v>363.25</v>
       </c>
-      <c r="C47" s="100">
+      <c r="C47" s="41">
         <v>338.48</v>
       </c>
-      <c r="D47" s="100">
+      <c r="D47" s="41">
         <v>45.21</v>
       </c>
-      <c r="E47" s="100">
+      <c r="E47" s="41">
         <v>7168</v>
       </c>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="I47" s="102">
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="I47" s="43">
         <f t="shared" si="0"/>
         <v>6.7904656319290151E-3</v>
       </c>
-      <c r="J47" s="102">
+      <c r="J47" s="43">
         <f t="shared" si="1"/>
         <v>-7.360919675063758E-3</v>
       </c>
-      <c r="K47" s="102">
+      <c r="K47" s="43">
         <f t="shared" si="2"/>
         <v>-8.9872862779481946E-3</v>
       </c>
-      <c r="L47" s="102">
+      <c r="L47" s="43">
         <f t="shared" si="3"/>
         <v>2.4E-2</v>
       </c>
-      <c r="M47" s="102">
+      <c r="M47" s="43">
         <f t="shared" si="4"/>
         <v>-7.131658156092827E-3</v>
       </c>
-      <c r="N47" s="102"/>
+      <c r="N47" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25466,11 +25516,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25481,182 +25531,182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5D6C3B-D868-4B8B-8E57-03270BB3B86D}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="82"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="78"/>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="85"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="41"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="48"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="41"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="48"/>
     </row>
-    <row r="5" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="79" t="s">
+    <row r="5" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="81"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="88"/>
     </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="84"/>
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="91"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="85" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
       <c r="K7" s="16" t="s">
         <v>18</v>
       </c>
@@ -25704,17 +25754,17 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="94"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
       <c r="K8" s="18" t="s">
         <v>19</v>
       </c>
@@ -25752,7 +25802,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -25776,111 +25826,111 @@
       <c r="U9" s="3"/>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="41"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="48"/>
     </row>
-    <row r="11" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="79" t="s">
+    <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="81"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="88"/>
     </row>
-    <row r="12" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="79" t="s">
+    <row r="12" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="81"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="88"/>
     </row>
-    <row r="13" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="89" t="s">
+    <row r="13" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="91"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="98"/>
     </row>
-    <row r="14" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -25904,92 +25954,92 @@
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
     </row>
-    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="70" t="s">
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="72"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="79"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="41"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="48"/>
     </row>
-    <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="54" t="s">
+    <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="56"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="63"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
       <c r="H18" s="21"/>
       <c r="I18" s="5" t="s">
         <v>1</v>
@@ -26014,14 +26064,14 @@
       <c r="U18" s="6"/>
       <c r="V18" s="22"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="23" t="s">
         <v>0</v>
       </c>
@@ -26048,14 +26098,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="24"/>
     </row>
-    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
+    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="25"/>
       <c r="I20" s="11" t="s">
         <v>34</v>
@@ -26076,33 +26126,33 @@
       <c r="U20" s="12"/>
       <c r="V20" s="26"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="53"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="60"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>37</v>
       </c>
@@ -26123,7 +26173,7 @@
       </c>
       <c r="V22" s="28"/>
     </row>
-    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>41</v>
       </c>
@@ -26144,106 +26194,106 @@
       </c>
       <c r="V23" s="28"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="61" t="s">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="63"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="70"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="66"/>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="73"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="66"/>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="73"/>
       <c r="Z26" s="29"/>
     </row>
-    <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="69"/>
+    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="74"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="76"/>
     </row>
-    <row r="28" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -26267,94 +26317,94 @@
       <c r="U28" s="23"/>
       <c r="V28" s="23"/>
     </row>
-    <row r="29" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="70" t="s">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="72"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="79"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="41"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="48"/>
     </row>
-    <row r="31" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="42" t="s">
+    <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="44"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="51"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="45" t="s">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="6"/>
       <c r="I32" s="30" t="s">
         <v>3</v>
@@ -26375,14 +26425,14 @@
       <c r="U32" s="6"/>
       <c r="V32" s="7"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="54"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
       <c r="H33" s="31" t="s">
         <v>0</v>
       </c>
@@ -26405,14 +26455,14 @@
       <c r="U33" s="3"/>
       <c r="V33" s="4"/>
     </row>
-    <row r="34" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
+    <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="56"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
       <c r="H34" s="12"/>
       <c r="I34" s="11" t="s">
         <v>32</v>
@@ -26433,33 +26483,33 @@
       <c r="U34" s="12"/>
       <c r="V34" s="13"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" s="51" t="s">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="53"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="60"/>
     </row>
-    <row r="36" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>52</v>
       </c>
@@ -26471,7 +26521,7 @@
       </c>
       <c r="V36" s="28"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>55</v>
       </c>
@@ -26497,7 +26547,7 @@
       <c r="U37" s="33"/>
       <c r="V37" s="36"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -26521,7 +26571,7 @@
       <c r="U38" s="3"/>
       <c r="V38" s="4"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -26545,7 +26595,7 @@
       <c r="U39" s="3"/>
       <c r="V39" s="4"/>
     </row>
-    <row r="40" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -26603,35 +26653,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99399BD1-DB50-4787-A6CA-3237CF9ACBB0}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="92">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="99">
         <v>2</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="94"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="101"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -26648,7 +26698,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -26665,7 +26715,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -26682,7 +26732,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -26699,7 +26749,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -26716,7 +26766,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -26733,7 +26783,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -26750,7 +26800,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -26767,7 +26817,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -26784,7 +26834,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -26801,7 +26851,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -26818,7 +26868,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -26835,7 +26885,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -26844,7 +26894,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="95" t="s">
+      <c r="I14" s="102" t="s">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="s">
@@ -26858,7 +26908,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -26867,7 +26917,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="96"/>
+      <c r="I15" s="103"/>
       <c r="J15" s="8" t="s">
         <v>3</v>
       </c>
@@ -26879,7 +26929,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -26888,7 +26938,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="96"/>
+      <c r="I16" s="103"/>
       <c r="J16" s="10" t="s">
         <v>5</v>
       </c>
@@ -26900,7 +26950,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -26909,7 +26959,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="96"/>
+      <c r="I17" s="103"/>
       <c r="J17" s="10" t="s">
         <v>7</v>
       </c>
@@ -26921,7 +26971,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -26930,7 +26980,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="96"/>
+      <c r="I18" s="103"/>
       <c r="J18" s="10" t="s">
         <v>9</v>
       </c>
@@ -26942,7 +26992,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -26951,7 +27001,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="97"/>
+      <c r="I19" s="104"/>
       <c r="J19" s="11" t="s">
         <v>11</v>
       </c>
@@ -26963,7 +27013,7 @@
       <c r="N19" s="13"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -26980,7 +27030,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -26997,7 +27047,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="13"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
@@ -27013,7 +27063,7 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
@@ -27029,7 +27079,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
@@ -27045,7 +27095,7 @@
       <c r="S27"/>
       <c r="T27"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
@@ -27061,7 +27111,7 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
@@ -27077,7 +27127,7 @@
       <c r="S29"/>
       <c r="T29"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
@@ -27108,16 +27158,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -27125,13 +27175,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">LEFT(CELL("имяфайла"),FIND("\[", CELL("имяфайла") )) &amp; "Data"</f>
-        <v>C:\Users\myfri\Downloads\ODMExcel-main\Topic 5\Data</v>
+        <v>D:\FinU\2021-2022\Д_Excel\Тема 5 Порфель\Data</v>
       </c>
     </row>
   </sheetData>

--- a/Topic 5/Семинар Решение ПИ20-2.xlsx
+++ b/Topic 5/Семинар Решение ПИ20-2.xlsx
@@ -8,61 +8,98 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinU\2021-2022\Д_Excel\Тема 5 Порфель\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6878ECB-898B-49B9-91F5-A1D176190090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BBF1EB-00DE-4D11-8FD8-BEC0F32EDA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="75" windowWidth="27795" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="75" windowWidth="27795" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="5" r:id="rId1"/>
-    <sheet name="Задание" sheetId="1" r:id="rId2"/>
-    <sheet name="Меры" sheetId="3" r:id="rId3"/>
-    <sheet name="F" sheetId="2" r:id="rId4"/>
-    <sheet name="Params" sheetId="4" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="6" r:id="rId1"/>
+    <sheet name="Data" sheetId="5" r:id="rId2"/>
+    <sheet name="Задание" sheetId="1" r:id="rId3"/>
+    <sheet name="Меры" sheetId="3" r:id="rId4"/>
+    <sheet name="F" sheetId="2" r:id="rId5"/>
+    <sheet name="Params" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Data!$R$21</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Data!$R$21</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$B$34</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Data!$R$21</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Data!$R$21</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Data!$S$14</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Data!$T$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Data!$R$21</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$B$34</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Data!$R$21</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$B$34</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Data!$S$14</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$B$26</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Data!$T$14</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Data!$R$23</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Data!$R$23</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$D$38</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">0.15</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -105,7 +142,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -127,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
   <si>
     <t>где</t>
   </si>
@@ -521,12 +558,63 @@
   <si>
     <t>W(Akrn)</t>
   </si>
+  <si>
+    <t>Cor(r)</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>Портфель минимального риска</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Sg*Cor(r)</t>
+  </si>
+  <si>
+    <t>Sg</t>
+  </si>
+  <si>
+    <t>Портфель максимального дохода</t>
+  </si>
+  <si>
+    <t>Div</t>
+  </si>
+  <si>
+    <t>Портфель Фишера</t>
+  </si>
+  <si>
+    <t>Д.быть</t>
+  </si>
+  <si>
+    <t>FОпт</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Pmin</t>
+  </si>
+  <si>
+    <t>Pmax</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +721,51 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -654,7 +787,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -869,6 +1002,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -876,7 +1020,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
@@ -958,6 +1102,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1044,72 +1254,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1128,6 +1272,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1135,7 +1298,17 @@
     <cellStyle name="Процентный" xfId="3" builtinId="5"/>
     <cellStyle name="Процентный 2" xfId="2" xr:uid="{1B6EFA44-0EAC-4E88-97CF-AFD05BC6869C}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1149,6 +1322,789 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pmin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$P$8:$P$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>297.20414043539591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>299.15246973314913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.19292978156727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301.75289346180546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>301.78157384905876</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>307.96391041072764</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>310.56581113709166</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>311.27415254149332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>311.92682808638119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>311.73542372801342</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>313.22544794112673</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>317.46123486602352</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>316.13286924850843</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>314.31846246886619</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>310.08174334066825</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>314.37112590728918</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>312.52422518101696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>311.44478208170466</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>309.25937045942129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>314.34129539889864</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>317.39647699706478</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>317.44265133122343</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>324.35992736029266</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>321.1352300238417</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>324.16698547189321</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>329.16278450362216</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>326.79357142861079</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>329.76912832920664</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>325.33184019367258</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>326.33476997579095</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>329.92484261513084</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>332.36680387437002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>338.13938256680456</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>332.41056900751994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>331.88646489115104</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>326.34544794186149</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>328.92487893489266</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>333.82337772425535</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>334.76703389867089</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>334.31730024254995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>342.7519007269151</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>340.96529055745157</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>343.71214285786448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>350.31940678010159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>350.14529055745157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33BD-4394-A996-5960CD8F27EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$Q$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pmax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$Q$8:$Q$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>288.36379766238394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288.95207422582757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>289.83147539781436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>288.38948057567853</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>285.28198673019835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>289.96558096951946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>291.99930177069501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>293.58004542243344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>296.11621505003285</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>295.63848380023148</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>297.89801153407257</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>301.27481778466853</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>298.30454639908902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>296.86594366445331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>295.27327442433744</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300.26505264650632</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300.83403506670504</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>298.97614073130768</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>296.6430918056289</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>301.92634034064548</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>307.0573919017051</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>307.47042256551305</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>314.66060391297992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>313.66388770049656</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>318.90125498412237</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>328.96593476576163</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>327.58544423773179</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>327.93484668096028</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>324.68760468794699</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>326.41529941400665</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>332.31388261552985</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>337.95912597268222</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>342.53718466491728</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>337.55997919564584</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>334.09655058440399</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>325.7996373050662</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>334.31587743766568</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>339.54544169524843</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>342.12652978004985</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>342.75052196680485</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>353.26994012942077</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>352.04703602746713</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>358.22981102508305</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>359.18211884150685</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>361.22703602746714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-33BD-4394-A996-5960CD8F27EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$R$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$R$8:$R$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>293.12963201458092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>294.45111386297799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>295.41734197660395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>295.59370487224351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294.17692452923808</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>299.66849169770194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>302.00851865410471</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>303.11894970529738</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>304.63972648761592</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>304.31635424517316</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>306.161042146738</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>310.00092541940984</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>307.91580646665233</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>306.27460753485843</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>303.25652933616544</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>307.86964561840773</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>307.13622391401816</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>305.69799312987703</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>303.44453556736755</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>308.61925042533505</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>312.63119918304483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>312.84645736867452</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>319.88951528725272</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>317.69169304876021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>321.74001360382681</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>329.07205658332066</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>327.15854510800568</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>328.92370907185131</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>325.03491245450391</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>326.37188594318701</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>331.02594964788148</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>334.94430161020944</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>340.16632678626866</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>334.78392892268084</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>332.90509199635477</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>326.09388416284355</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>331.40958675224192</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>336.46067340756628</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>338.15902091903564</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>338.20416682819587</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>347.59965846848189</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>346.07286007079102</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>350.40332698010366</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>354.40422519185995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>355.25286007079103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-33BD-4394-A996-5960CD8F27EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1428888208"/>
+        <c:axId val="1428889456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1428888208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1428889456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1428889456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="260"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1428888208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1554,7 +2510,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2074,16 +3586,57 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>528204</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>145472</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D773A0D8-9450-4F3C-97F1-889D145E81CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>226868</xdr:colOff>
+      <xdr:colOff>374073</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>6927</xdr:rowOff>
+      <xdr:rowOff>128154</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2111,7 +3664,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2202,7 +3755,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4884,7 +6437,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -23066,6 +24619,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A061FBB8-9D0D-43F7-BF6F-3EDFC0140BAB}" name="Таблица1" displayName="Таблица1" ref="M7:R52" totalsRowShown="0">
+  <autoFilter ref="M7:R52" xr:uid="{A061FBB8-9D0D-43F7-BF6F-3EDFC0140BAB}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{68F03C3C-0F62-4AEA-AD8B-592E2F950F5A}" name="Date">
+      <calculatedColumnFormula>Data!A3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{50E514D9-A80B-4C27-B5BC-EB70DF2ED01D}" name="GAZP">
+      <calculatedColumnFormula>Data!B3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{143CA347-21BF-40A9-807C-7C173A71ED86}" name="SBER">
+      <calculatedColumnFormula>Data!C3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{9DF7441D-0C2B-4C6D-9456-F6131395F581}" name="Pmin" dataDxfId="0">
+      <calculatedColumnFormula>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{DE213097-89ED-4474-AB8D-40E6E6DFA528}" name="Pmax" dataDxfId="2">
+      <calculatedColumnFormula>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{3103EAE3-76EF-4D80-B51E-4BAA7E0FEC94}" name="PF" dataDxfId="1">
+      <calculatedColumnFormula>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BCB0EDF4-6EF6-442A-9C3F-D998C2296BD0}" name="Params" displayName="Params" ref="A1:B2" totalsRowShown="0">
   <autoFilter ref="A1:B2" xr:uid="{BCB0EDF4-6EF6-442A-9C3F-D998C2296BD0}"/>
   <tableColumns count="2">
@@ -23340,11 +24927,1542 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7AFFF6-6834-4C8B-8A07-DDDCD05C3EF7}">
+  <dimension ref="A1:R52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="107" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="107" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="105">
+        <v>1</v>
+      </c>
+      <c r="C2" s="105" cm="1">
+        <f t="array" ref="C2">TRANSPOSE(B3)</f>
+        <v>0.30442095915213602</v>
+      </c>
+      <c r="D2" s="112" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="111">
+        <f>B10^2</f>
+        <v>7.8801251460222585E-3</v>
+      </c>
+      <c r="G2" s="111" cm="1">
+        <f t="array" ref="G2">TRANSPOSE(F3)</f>
+        <v>7.5676773659537925E-3</v>
+      </c>
+      <c r="H2" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="111">
+        <f>B2*F2</f>
+        <v>7.8801251460222585E-3</v>
+      </c>
+      <c r="K2" s="111">
+        <f>C2*G2</f>
+        <v>2.3037596022975637E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="106">
+        <v>0.30442095915213602</v>
+      </c>
+      <c r="C3" s="106">
+        <v>1</v>
+      </c>
+      <c r="E3" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="110">
+        <f>B10*C10</f>
+        <v>7.5676773659537925E-3</v>
+      </c>
+      <c r="G3" s="110">
+        <f>C10^2</f>
+        <v>7.2676181727999636E-3</v>
+      </c>
+      <c r="I3" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="110">
+        <f>B3*F3</f>
+        <v>2.3037596022975637E-3</v>
+      </c>
+      <c r="K3" s="110">
+        <f>C3*G3</f>
+        <v>7.2676181727999636E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="108" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="44" t="str">
+        <f>Data!R3</f>
+        <v>GAZP</v>
+      </c>
+      <c r="C8" s="44" t="str">
+        <f>Data!S3</f>
+        <v>SBER</v>
+      </c>
+      <c r="M8" t="str">
+        <f>Data!A3</f>
+        <v>02.авг</v>
+      </c>
+      <c r="N8">
+        <f>Data!B3</f>
+        <v>286.75</v>
+      </c>
+      <c r="O8">
+        <f>Data!C3</f>
+        <v>306.51</v>
+      </c>
+      <c r="P8">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>297.20414043539591</v>
+      </c>
+      <c r="Q8">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>288.36379766238394</v>
+      </c>
+      <c r="R8">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>293.12963201458092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="str">
+        <f>Data!Q4</f>
+        <v>Ср.д.%</v>
+      </c>
+      <c r="B9" s="109">
+        <f>Data!R4</f>
+        <v>0.24633258859900181</v>
+      </c>
+      <c r="C9" s="43">
+        <f>Data!S4</f>
+        <v>0.10511499843391411</v>
+      </c>
+      <c r="M9" t="str">
+        <f>Data!A4</f>
+        <v>03.авг</v>
+      </c>
+      <c r="N9">
+        <f>Data!B4</f>
+        <v>287.08999999999997</v>
+      </c>
+      <c r="O9">
+        <f>Data!C4</f>
+        <v>309.89</v>
+      </c>
+      <c r="P9">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>299.15246973314913</v>
+      </c>
+      <c r="Q9">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>288.95207422582757</v>
+      </c>
+      <c r="R9">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>294.45111386297799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="str">
+        <f>Data!Q5</f>
+        <v>Ср.риск%</v>
+      </c>
+      <c r="B10" s="109">
+        <f>Data!R5</f>
+        <v>8.8770068976103983E-2</v>
+      </c>
+      <c r="C10" s="109">
+        <f>Data!S5</f>
+        <v>8.5250326526060669E-2</v>
+      </c>
+      <c r="M10" t="str">
+        <f>Data!A5</f>
+        <v>04.авг</v>
+      </c>
+      <c r="N10">
+        <f>Data!B5</f>
+        <v>287.94</v>
+      </c>
+      <c r="O10">
+        <f>Data!C5</f>
+        <v>311.10000000000002</v>
+      </c>
+      <c r="P10">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>300.19292978156727</v>
+      </c>
+      <c r="Q10">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>289.83147539781436</v>
+      </c>
+      <c r="R10">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>295.41734197660395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11">
+        <f>Data!R8</f>
+        <v>0.47094430994959902</v>
+      </c>
+      <c r="C11">
+        <f>1-B11</f>
+        <v>0.52905569005040098</v>
+      </c>
+      <c r="M11" t="str">
+        <f>Data!A6</f>
+        <v>05.авг</v>
+      </c>
+      <c r="N11">
+        <f>Data!B6</f>
+        <v>285.95</v>
+      </c>
+      <c r="O11">
+        <f>Data!C6</f>
+        <v>315.82</v>
+      </c>
+      <c r="P11">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>301.75289346180546</v>
+      </c>
+      <c r="Q11">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>288.38948057567853</v>
+      </c>
+      <c r="R11">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>295.59370487224351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M12" t="str">
+        <f>Data!A7</f>
+        <v>06.авг</v>
+      </c>
+      <c r="N12">
+        <f>Data!B7</f>
+        <v>282.27</v>
+      </c>
+      <c r="O12">
+        <f>Data!C7</f>
+        <v>319.14999999999998</v>
+      </c>
+      <c r="P12">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>301.78157384905876</v>
+      </c>
+      <c r="Q12">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>285.28198673019835</v>
+      </c>
+      <c r="R12">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>294.17692452923808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13">
+        <f>SUMPRODUCT(B11:C11,B9:C9)</f>
+        <v>0.17162061898695663</v>
+      </c>
+      <c r="M13" t="str">
+        <f>Data!A8</f>
+        <v>09.авг</v>
+      </c>
+      <c r="N13">
+        <f>Data!B8</f>
+        <v>286.68</v>
+      </c>
+      <c r="O13">
+        <f>Data!C8</f>
+        <v>326.91000000000003</v>
+      </c>
+      <c r="P13">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>307.96391041072764</v>
+      </c>
+      <c r="Q13">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>289.96558096951946</v>
+      </c>
+      <c r="R13">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>299.66849169770194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" cm="1">
+        <f t="array" ref="B14">SQRT(MMULT(MMULT(B11:C11,$J$2:$K$3),TRANSPOSE(B11:C11)))</f>
+        <v>7.0213369271254239E-2</v>
+      </c>
+      <c r="M14" t="str">
+        <f>Data!A9</f>
+        <v>10.авг</v>
+      </c>
+      <c r="N14">
+        <f>Data!B9</f>
+        <v>288.61</v>
+      </c>
+      <c r="O14">
+        <f>Data!C9</f>
+        <v>330.11</v>
+      </c>
+      <c r="P14">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>310.56581113709166</v>
+      </c>
+      <c r="Q14">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>291.99930177069501</v>
+      </c>
+      <c r="R14">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>302.00851865410471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M15" t="str">
+        <f>Data!A10</f>
+        <v>11.авг</v>
+      </c>
+      <c r="N15">
+        <f>Data!B10</f>
+        <v>290.35000000000002</v>
+      </c>
+      <c r="O15">
+        <f>Data!C10</f>
+        <v>329.9</v>
+      </c>
+      <c r="P15">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>311.27415254149332</v>
+      </c>
+      <c r="Q15">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>293.58004542243344</v>
+      </c>
+      <c r="R15">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>303.11894970529738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M16" t="str">
+        <f>Data!A11</f>
+        <v>12.авг</v>
+      </c>
+      <c r="N16">
+        <f>Data!B11</f>
+        <v>293.23</v>
+      </c>
+      <c r="O16">
+        <f>Data!C11</f>
+        <v>328.57</v>
+      </c>
+      <c r="P16">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>311.92682808638119</v>
+      </c>
+      <c r="Q16">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>296.11621505003285</v>
+      </c>
+      <c r="R16">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>304.63972648761592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="114" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" t="str">
+        <f>Data!A12</f>
+        <v>13.авг</v>
+      </c>
+      <c r="N17">
+        <f>Data!B12</f>
+        <v>292.7</v>
+      </c>
+      <c r="O17">
+        <f>Data!C12</f>
+        <v>328.68</v>
+      </c>
+      <c r="P17">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>311.73542372801342</v>
+      </c>
+      <c r="Q17">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>295.63848380023148</v>
+      </c>
+      <c r="R17">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>304.31635424517316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M18" t="str">
+        <f>Data!A13</f>
+        <v>16.авг</v>
+      </c>
+      <c r="N18">
+        <f>Data!B13</f>
+        <v>295.10000000000002</v>
+      </c>
+      <c r="O18">
+        <f>Data!C13</f>
+        <v>329.36</v>
+      </c>
+      <c r="P18">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>313.22544794112673</v>
+      </c>
+      <c r="Q18">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>297.89801153407257</v>
+      </c>
+      <c r="R18">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>306.161042146738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="44" t="str">
+        <f>B8</f>
+        <v>GAZP</v>
+      </c>
+      <c r="C19" s="44" t="str">
+        <f>C8</f>
+        <v>SBER</v>
+      </c>
+      <c r="M19" t="str">
+        <f>Data!A14</f>
+        <v>17.авг</v>
+      </c>
+      <c r="N19">
+        <f>Data!B14</f>
+        <v>298.32</v>
+      </c>
+      <c r="O19">
+        <f>Data!C14</f>
+        <v>334.5</v>
+      </c>
+      <c r="P19">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>317.46123486602352</v>
+      </c>
+      <c r="Q19">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>301.27481778466853</v>
+      </c>
+      <c r="R19">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>310.00092541940984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="str">
+        <f>A9</f>
+        <v>Ср.д.%</v>
+      </c>
+      <c r="B20" s="109">
+        <f>Data!R4</f>
+        <v>0.24633258859900181</v>
+      </c>
+      <c r="C20" s="109">
+        <f>Data!S4</f>
+        <v>0.10511499843391411</v>
+      </c>
+      <c r="M20" t="str">
+        <f>Data!A15</f>
+        <v>18.авг</v>
+      </c>
+      <c r="N20">
+        <f>Data!B15</f>
+        <v>295.05</v>
+      </c>
+      <c r="O20">
+        <f>Data!C15</f>
+        <v>334.9</v>
+      </c>
+      <c r="P20">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>316.13286924850843</v>
+      </c>
+      <c r="Q20">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>298.30454639908902</v>
+      </c>
+      <c r="R20">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>307.91580646665233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="str">
+        <f t="shared" ref="A21:A22" si="0">A10</f>
+        <v>Ср.риск%</v>
+      </c>
+      <c r="B21" s="109">
+        <f>Data!R5</f>
+        <v>8.8770068976103983E-2</v>
+      </c>
+      <c r="C21" s="109">
+        <f>Data!S5</f>
+        <v>8.5250326526060669E-2</v>
+      </c>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="M21" t="str">
+        <f>Data!A16</f>
+        <v>19.авг</v>
+      </c>
+      <c r="N21">
+        <f>Data!B16</f>
+        <v>293.68</v>
+      </c>
+      <c r="O21">
+        <f>Data!C16</f>
+        <v>332.69</v>
+      </c>
+      <c r="P21">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>314.31846246886619</v>
+      </c>
+      <c r="Q21">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>296.86594366445331</v>
+      </c>
+      <c r="R21">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>306.27460753485843</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>W</v>
+      </c>
+      <c r="B22">
+        <v>0.91833007781457876</v>
+      </c>
+      <c r="C22">
+        <f>1-B22</f>
+        <v>8.166992218542124E-2</v>
+      </c>
+      <c r="M22" t="str">
+        <f>Data!A17</f>
+        <v>20.авг</v>
+      </c>
+      <c r="N22">
+        <f>Data!B17</f>
+        <v>292.57</v>
+      </c>
+      <c r="O22">
+        <f>Data!C17</f>
+        <v>325.67</v>
+      </c>
+      <c r="P22">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>310.08174334066825</v>
+      </c>
+      <c r="Q22">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>295.27327442433744</v>
+      </c>
+      <c r="R22">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>303.25652933616544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M23" t="str">
+        <f>Data!A18</f>
+        <v>23.авг</v>
+      </c>
+      <c r="N23">
+        <f>Data!B18</f>
+        <v>297.69</v>
+      </c>
+      <c r="O23">
+        <f>Data!C18</f>
+        <v>329.22</v>
+      </c>
+      <c r="P23">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>314.37112590728918</v>
+      </c>
+      <c r="Q23">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>300.26505264650632</v>
+      </c>
+      <c r="R23">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>307.86964561840773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24">
+        <f>SUMPRODUCT(B20:C20,B22:C22)</f>
+        <v>0.23479935899900639</v>
+      </c>
+      <c r="M24" t="str">
+        <f>Data!A19</f>
+        <v>24.авг</v>
+      </c>
+      <c r="N24">
+        <f>Data!B19</f>
+        <v>298.7</v>
+      </c>
+      <c r="O24">
+        <f>Data!C19</f>
+        <v>324.83</v>
+      </c>
+      <c r="P24">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>312.52422518101696</v>
+      </c>
+      <c r="Q24">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>300.83403506670504</v>
+      </c>
+      <c r="R24">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>307.13622391401816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" cm="1">
+        <f t="array" ref="B25">SQRT(MMULT(MMULT(B22:C22,$J$2:$K$3),TRANSPOSE(B22:C22)))</f>
+        <v>8.3902237811825389E-2</v>
+      </c>
+      <c r="M25" t="str">
+        <f>Data!A20</f>
+        <v>25.авг</v>
+      </c>
+      <c r="N25">
+        <f>Data!B20</f>
+        <v>296.7</v>
+      </c>
+      <c r="O25">
+        <f>Data!C20</f>
+        <v>324.57</v>
+      </c>
+      <c r="P25">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>311.44478208170466</v>
+      </c>
+      <c r="Q25">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>298.97614073130768</v>
+      </c>
+      <c r="R25">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>305.69799312987703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26">
+        <f>(10000-(B22*100)^2-(C22*100)^2)/10000</f>
+        <v>0.14999989199129687</v>
+      </c>
+      <c r="M26" t="str">
+        <f>Data!A21</f>
+        <v>26.авг</v>
+      </c>
+      <c r="N26">
+        <f>Data!B21</f>
+        <v>294.33999999999997</v>
+      </c>
+      <c r="O26">
+        <f>Data!C21</f>
+        <v>322.54000000000002</v>
+      </c>
+      <c r="P26">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>309.25937045942129</v>
+      </c>
+      <c r="Q26">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>296.6430918056289</v>
+      </c>
+      <c r="R26">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>303.44453556736755</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M27" t="str">
+        <f>Data!A22</f>
+        <v>27.авг</v>
+      </c>
+      <c r="N27">
+        <f>Data!B22</f>
+        <v>299.66000000000003</v>
+      </c>
+      <c r="O27">
+        <f>Data!C22</f>
+        <v>327.41000000000003</v>
+      </c>
+      <c r="P27">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>314.34129539889864</v>
+      </c>
+      <c r="Q27">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>301.92634034064548</v>
+      </c>
+      <c r="R27">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>308.61925042533505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M28" t="str">
+        <f>Data!A23</f>
+        <v>30.авг</v>
+      </c>
+      <c r="N28">
+        <f>Data!B23</f>
+        <v>305.17</v>
+      </c>
+      <c r="O28">
+        <f>Data!C23</f>
+        <v>328.28</v>
+      </c>
+      <c r="P28">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>317.39647699706478</v>
+      </c>
+      <c r="Q28">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>307.0573919017051</v>
+      </c>
+      <c r="R28">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>312.63119918304483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="116" t="s">
+        <v>130</v>
+      </c>
+      <c r="M29" t="str">
+        <f>Data!A24</f>
+        <v>31.авг</v>
+      </c>
+      <c r="N29">
+        <f>Data!B24</f>
+        <v>305.64999999999998</v>
+      </c>
+      <c r="O29">
+        <f>Data!C24</f>
+        <v>327.94</v>
+      </c>
+      <c r="P29">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>317.44265133122343</v>
+      </c>
+      <c r="Q29">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>307.47042256551305</v>
+      </c>
+      <c r="R29">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>312.84645736867452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M30" t="str">
+        <f>Data!A25</f>
+        <v>01.сен</v>
+      </c>
+      <c r="N30">
+        <f>Data!B25</f>
+        <v>312.89</v>
+      </c>
+      <c r="O30">
+        <f>Data!C25</f>
+        <v>334.57</v>
+      </c>
+      <c r="P30">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>324.35992736029266</v>
+      </c>
+      <c r="Q30">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>314.66060391297992</v>
+      </c>
+      <c r="R30">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>319.88951528725272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="44" t="str">
+        <f>B19</f>
+        <v>GAZP</v>
+      </c>
+      <c r="C31" s="44" t="str">
+        <f>C19</f>
+        <v>SBER</v>
+      </c>
+      <c r="M31" t="str">
+        <f>Data!A26</f>
+        <v>02.сен</v>
+      </c>
+      <c r="N31">
+        <f>Data!B26</f>
+        <v>312.3</v>
+      </c>
+      <c r="O31">
+        <f>Data!C26</f>
+        <v>329</v>
+      </c>
+      <c r="P31">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>321.1352300238417</v>
+      </c>
+      <c r="Q31">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>313.66388770049656</v>
+      </c>
+      <c r="R31">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>317.69169304876021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="str">
+        <f>A20</f>
+        <v>Ср.д.%</v>
+      </c>
+      <c r="B32" s="109">
+        <f>B20</f>
+        <v>0.24633258859900181</v>
+      </c>
+      <c r="C32" s="109">
+        <f>C20</f>
+        <v>0.10511499843391411</v>
+      </c>
+      <c r="M32" t="str">
+        <f>Data!A27</f>
+        <v>03.сен</v>
+      </c>
+      <c r="N32">
+        <f>Data!B27</f>
+        <v>317.94</v>
+      </c>
+      <c r="O32">
+        <f>Data!C27</f>
+        <v>329.71</v>
+      </c>
+      <c r="P32">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>324.16698547189321</v>
+      </c>
+      <c r="Q32">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>318.90125498412237</v>
+      </c>
+      <c r="R32">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>321.74001360382681</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="str">
+        <f t="shared" ref="A33:A34" si="1">A21</f>
+        <v>Ср.риск%</v>
+      </c>
+      <c r="B33" s="109">
+        <f>B21</f>
+        <v>8.8770068976103983E-2</v>
+      </c>
+      <c r="C33" s="109">
+        <f>C21</f>
+        <v>8.5250326526060669E-2</v>
+      </c>
+      <c r="M33" t="str">
+        <f>Data!A28</f>
+        <v>06.сен</v>
+      </c>
+      <c r="N33">
+        <f>Data!B28</f>
+        <v>328.93</v>
+      </c>
+      <c r="O33">
+        <f>Data!C28</f>
+        <v>329.37</v>
+      </c>
+      <c r="P33">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>329.16278450362216</v>
+      </c>
+      <c r="Q33">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>328.96593476576163</v>
+      </c>
+      <c r="R33">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>329.07205658332066</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>W</v>
+      </c>
+      <c r="B34">
+        <v>0.67714412881675468</v>
+      </c>
+      <c r="C34">
+        <f>1-B34</f>
+        <v>0.32285587118324532</v>
+      </c>
+      <c r="M34" t="str">
+        <f>Data!A29</f>
+        <v>07.сен</v>
+      </c>
+      <c r="N34">
+        <f>Data!B29</f>
+        <v>327.73</v>
+      </c>
+      <c r="O34">
+        <f>Data!C29</f>
+        <v>325.95999999999998</v>
+      </c>
+      <c r="P34">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>326.79357142861079</v>
+      </c>
+      <c r="Q34">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>327.58544423773179</v>
+      </c>
+      <c r="R34">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>327.15854510800568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C35" s="117" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="117" t="s">
+        <v>132</v>
+      </c>
+      <c r="M35" t="str">
+        <f>Data!A30</f>
+        <v>08.сен</v>
+      </c>
+      <c r="N35">
+        <f>Data!B30</f>
+        <v>327.60000000000002</v>
+      </c>
+      <c r="O35">
+        <f>Data!C30</f>
+        <v>331.7</v>
+      </c>
+      <c r="P35">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>329.76912832920664</v>
+      </c>
+      <c r="Q35">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>327.93484668096028</v>
+      </c>
+      <c r="R35">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>328.92370907185131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="44" t="str">
+        <f>A24</f>
+        <v>R</v>
+      </c>
+      <c r="B36">
+        <f>SUMPRODUCT(B34:C34,B32:C32)</f>
+        <v>0.20073966049985392</v>
+      </c>
+      <c r="C36">
+        <f>GEOMEAN(B13,B24)</f>
+        <v>0.20073966057844703</v>
+      </c>
+      <c r="D36">
+        <f>ABS(B36-C36)</f>
+        <v>7.8593104246849066E-11</v>
+      </c>
+      <c r="M36" t="str">
+        <f>Data!A31</f>
+        <v>09.сен</v>
+      </c>
+      <c r="N36">
+        <f>Data!B31</f>
+        <v>324.57</v>
+      </c>
+      <c r="O36">
+        <f>Data!C31</f>
+        <v>326.01</v>
+      </c>
+      <c r="P36">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>325.33184019367258</v>
+      </c>
+      <c r="Q36">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>324.68760468794699</v>
+      </c>
+      <c r="R36">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>325.03491245450391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="str">
+        <f>A25</f>
+        <v>Sg</v>
+      </c>
+      <c r="B37">
+        <f>B14</f>
+        <v>7.0213369271254239E-2</v>
+      </c>
+      <c r="C37">
+        <f>GEOMEAN(B14,B25)</f>
+        <v>7.675323319682556E-2</v>
+      </c>
+      <c r="D37">
+        <f>ABS(B37-C37)</f>
+        <v>6.5398639255713209E-3</v>
+      </c>
+      <c r="M37" t="str">
+        <f>Data!A32</f>
+        <v>10.сен</v>
+      </c>
+      <c r="N37">
+        <f>Data!B32</f>
+        <v>326.43</v>
+      </c>
+      <c r="O37">
+        <f>Data!C32</f>
+        <v>326.25</v>
+      </c>
+      <c r="P37">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>326.33476997579095</v>
+      </c>
+      <c r="Q37">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>326.41529941400665</v>
+      </c>
+      <c r="R37">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>326.37188594318701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="D38">
+        <f>SUM(D36:D37)</f>
+        <v>6.5398640041644251E-3</v>
+      </c>
+      <c r="M38" t="str">
+        <f>Data!A33</f>
+        <v>13.сен</v>
+      </c>
+      <c r="N38">
+        <f>Data!B33</f>
+        <v>332.75</v>
+      </c>
+      <c r="O38">
+        <f>Data!C33</f>
+        <v>327.41000000000003</v>
+      </c>
+      <c r="P38">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>329.92484261513084</v>
+      </c>
+      <c r="Q38">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>332.31388261552985</v>
+      </c>
+      <c r="R38">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>331.02594964788148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M39" t="str">
+        <f>Data!A34</f>
+        <v>14.сен</v>
+      </c>
+      <c r="N39">
+        <f>Data!B34</f>
+        <v>338.98</v>
+      </c>
+      <c r="O39">
+        <f>Data!C34</f>
+        <v>326.48</v>
+      </c>
+      <c r="P39">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>332.36680387437002</v>
+      </c>
+      <c r="Q39">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>337.95912597268222</v>
+      </c>
+      <c r="R39">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>334.94430161020944</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M40" t="str">
+        <f>Data!A35</f>
+        <v>15.сен</v>
+      </c>
+      <c r="N40">
+        <f>Data!B35</f>
+        <v>343.34</v>
+      </c>
+      <c r="O40">
+        <f>Data!C35</f>
+        <v>333.51</v>
+      </c>
+      <c r="P40">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>338.13938256680456</v>
+      </c>
+      <c r="Q40">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>342.53718466491728</v>
+      </c>
+      <c r="R40">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>340.16632678626866</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M41" t="str">
+        <f>Data!A36</f>
+        <v>16.сен</v>
+      </c>
+      <c r="N41">
+        <f>Data!B36</f>
+        <v>338.5</v>
+      </c>
+      <c r="O41">
+        <f>Data!C36</f>
+        <v>326.99</v>
+      </c>
+      <c r="P41">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>332.41056900751994</v>
+      </c>
+      <c r="Q41">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>337.55997919564584</v>
+      </c>
+      <c r="R41">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>334.78392892268084</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M42" t="str">
+        <f>Data!A37</f>
+        <v>17.сен</v>
+      </c>
+      <c r="N42">
+        <f>Data!B37</f>
+        <v>334.5</v>
+      </c>
+      <c r="O42">
+        <f>Data!C37</f>
+        <v>329.56</v>
+      </c>
+      <c r="P42">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>331.88646489115104</v>
+      </c>
+      <c r="Q42">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>334.09655058440399</v>
+      </c>
+      <c r="R42">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>332.90509199635477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M43" t="str">
+        <f>Data!A38</f>
+        <v>20.сен</v>
+      </c>
+      <c r="N43">
+        <f>Data!B38</f>
+        <v>325.7</v>
+      </c>
+      <c r="O43">
+        <f>Data!C38</f>
+        <v>326.92</v>
+      </c>
+      <c r="P43">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>326.34544794186149</v>
+      </c>
+      <c r="Q43">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>325.7996373050662</v>
+      </c>
+      <c r="R43">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>326.09388416284355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M44" t="str">
+        <f>Data!A39</f>
+        <v>21.сен</v>
+      </c>
+      <c r="N44">
+        <f>Data!B39</f>
+        <v>335.3</v>
+      </c>
+      <c r="O44">
+        <f>Data!C39</f>
+        <v>323.25</v>
+      </c>
+      <c r="P44">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>328.92487893489266</v>
+      </c>
+      <c r="Q44">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>334.31587743766568</v>
+      </c>
+      <c r="R44">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>331.40958675224192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M45" t="str">
+        <f>Data!A40</f>
+        <v>22.сен</v>
+      </c>
+      <c r="N45">
+        <f>Data!B40</f>
+        <v>340.59</v>
+      </c>
+      <c r="O45">
+        <f>Data!C40</f>
+        <v>327.8</v>
+      </c>
+      <c r="P45">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>333.82337772425535</v>
+      </c>
+      <c r="Q45">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>339.54544169524843</v>
+      </c>
+      <c r="R45">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>336.46067340756628</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M46" t="str">
+        <f>Data!A41</f>
+        <v>23.сен</v>
+      </c>
+      <c r="N46">
+        <f>Data!B41</f>
+        <v>343.47</v>
+      </c>
+      <c r="O46">
+        <f>Data!C41</f>
+        <v>327.02</v>
+      </c>
+      <c r="P46">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>334.76703389867089</v>
+      </c>
+      <c r="Q46">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>342.12652978004985</v>
+      </c>
+      <c r="R46">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>338.15902091903564</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M47" t="str">
+        <f>Data!A42</f>
+        <v>24.сен</v>
+      </c>
+      <c r="N47">
+        <f>Data!B42</f>
+        <v>344.29</v>
+      </c>
+      <c r="O47">
+        <f>Data!C42</f>
+        <v>325.44</v>
+      </c>
+      <c r="P47">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>334.31730024254995</v>
+      </c>
+      <c r="Q47">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>342.75052196680485</v>
+      </c>
+      <c r="R47">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>338.20416682819587</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M48" t="str">
+        <f>Data!A43</f>
+        <v>27.сен</v>
+      </c>
+      <c r="N48">
+        <f>Data!B43</f>
+        <v>355.19</v>
+      </c>
+      <c r="O48">
+        <f>Data!C43</f>
+        <v>331.68</v>
+      </c>
+      <c r="P48">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>342.7519007269151</v>
+      </c>
+      <c r="Q48">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>353.26994012942077</v>
+      </c>
+      <c r="R48">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>347.59965846848189</v>
+      </c>
+    </row>
+    <row r="49" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M49" t="str">
+        <f>Data!A44</f>
+        <v>28.сен</v>
+      </c>
+      <c r="N49">
+        <f>Data!B44</f>
+        <v>354.07</v>
+      </c>
+      <c r="O49">
+        <f>Data!C44</f>
+        <v>329.3</v>
+      </c>
+      <c r="P49">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>340.96529055745157</v>
+      </c>
+      <c r="Q49">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>352.04703602746713</v>
+      </c>
+      <c r="R49">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>346.07286007079102</v>
+      </c>
+    </row>
+    <row r="50" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M50" t="str">
+        <f>Data!A45</f>
+        <v>29.сен</v>
+      </c>
+      <c r="N50">
+        <f>Data!B45</f>
+        <v>360.88</v>
+      </c>
+      <c r="O50">
+        <f>Data!C45</f>
+        <v>328.43</v>
+      </c>
+      <c r="P50">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>343.71214285786448</v>
+      </c>
+      <c r="Q50">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>358.22981102508305</v>
+      </c>
+      <c r="R50">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>350.40332698010366</v>
+      </c>
+    </row>
+    <row r="51" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M51" t="str">
+        <f>Data!A46</f>
+        <v>30.сен</v>
+      </c>
+      <c r="N51">
+        <f>Data!B46</f>
+        <v>360.8</v>
+      </c>
+      <c r="O51">
+        <f>Data!C46</f>
+        <v>340.99</v>
+      </c>
+      <c r="P51">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>350.31940678010159</v>
+      </c>
+      <c r="Q51">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>359.18211884150685</v>
+      </c>
+      <c r="R51">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>354.40422519185995</v>
+      </c>
+    </row>
+    <row r="52" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M52" t="str">
+        <f>Data!A47</f>
+        <v>01.окт</v>
+      </c>
+      <c r="N52">
+        <f>Data!B47</f>
+        <v>363.25</v>
+      </c>
+      <c r="O52">
+        <f>Data!C47</f>
+        <v>338.48</v>
+      </c>
+      <c r="P52">
+        <f>$B$11*Таблица1[[#This Row],[GAZP]]+$C$11*Таблица1[[#This Row],[SBER]]</f>
+        <v>350.14529055745157</v>
+      </c>
+      <c r="Q52">
+        <f>$B$22*Таблица1[[#This Row],[GAZP]]+$C$22*Таблица1[[#This Row],[SBER]]</f>
+        <v>361.22703602746714</v>
+      </c>
+      <c r="R52">
+        <f>$B$34*Таблица1[[#This Row],[GAZP]]+$C$34*Таблица1[[#This Row],[SBER]]</f>
+        <v>355.25286007079103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6324AE77-1C0E-4FC4-A7D4-CB514BD3238E}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25512,11 +28630,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -25527,7 +28645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5D6C3B-D868-4B8B-8E57-03270BB3B86D}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
@@ -25543,54 +28661,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="51"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="85"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="54"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
@@ -25645,68 +28763,68 @@
       <c r="V4" s="48"/>
     </row>
     <row r="5" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="88"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="57"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="91"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="60"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
       <c r="K7" s="16" t="s">
         <v>18</v>
       </c>
@@ -25755,16 +28873,16 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="94"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
       <c r="K8" s="18" t="s">
         <v>19</v>
       </c>
@@ -25853,82 +28971,82 @@
       <c r="V10" s="48"/>
     </row>
     <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="88"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="57"/>
     </row>
     <row r="12" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="88"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="57"/>
     </row>
     <row r="13" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="98"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="67"/>
     </row>
     <row r="14" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
@@ -25955,30 +29073,30 @@
       <c r="V14" s="20"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="79"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="70"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
@@ -26007,39 +29125,39 @@
       <c r="V16" s="48"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="63"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="85"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
       <c r="H18" s="21"/>
       <c r="I18" s="5" t="s">
         <v>1</v>
@@ -26065,13 +29183,13 @@
       <c r="V18" s="22"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="23" t="s">
         <v>0</v>
       </c>
@@ -26099,13 +29217,13 @@
       <c r="V19" s="24"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
       <c r="H20" s="25"/>
       <c r="I20" s="11" t="s">
         <v>34</v>
@@ -26127,30 +29245,30 @@
       <c r="V20" s="26"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="60"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="82"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
@@ -26195,103 +29313,103 @@
       <c r="V23" s="28"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="70"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="91"/>
+      <c r="V24" s="92"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="73"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="95"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="73"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="95"/>
       <c r="Z26" s="29"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="74"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="76"/>
+      <c r="A27" s="96"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="97"/>
+      <c r="V27" s="98"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
@@ -26318,30 +29436,30 @@
       <c r="V28" s="23"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="79"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="70"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
@@ -26370,41 +29488,41 @@
       <c r="V30" s="48"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="51"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="73"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
       <c r="H32" s="6"/>
       <c r="I32" s="30" t="s">
         <v>3</v>
@@ -26426,13 +29544,13 @@
       <c r="V32" s="7"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
       <c r="H33" s="31" t="s">
         <v>0</v>
       </c>
@@ -26456,13 +29574,13 @@
       <c r="V33" s="4"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
       <c r="H34" s="12"/>
       <c r="I34" s="11" t="s">
         <v>32</v>
@@ -26484,30 +29602,30 @@
       <c r="V34" s="13"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="60"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="81"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="81"/>
+      <c r="V35" s="82"/>
     </row>
     <row r="36" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
@@ -26621,6 +29739,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A30:V30"/>
+    <mergeCell ref="A31:V31"/>
+    <mergeCell ref="A32:G34"/>
+    <mergeCell ref="A35:V35"/>
+    <mergeCell ref="A17:V17"/>
+    <mergeCell ref="A18:G20"/>
+    <mergeCell ref="A21:V21"/>
+    <mergeCell ref="A24:V24"/>
+    <mergeCell ref="A25:V27"/>
+    <mergeCell ref="A29:V29"/>
     <mergeCell ref="A16:V16"/>
     <mergeCell ref="A1:V2"/>
     <mergeCell ref="A3:V3"/>
@@ -26633,28 +29761,18 @@
     <mergeCell ref="A12:V12"/>
     <mergeCell ref="A13:V13"/>
     <mergeCell ref="A15:V15"/>
-    <mergeCell ref="A30:V30"/>
-    <mergeCell ref="A31:V31"/>
-    <mergeCell ref="A32:G34"/>
-    <mergeCell ref="A35:V35"/>
-    <mergeCell ref="A17:V17"/>
-    <mergeCell ref="A18:G20"/>
-    <mergeCell ref="A21:V21"/>
-    <mergeCell ref="A24:V24"/>
-    <mergeCell ref="A25:V27"/>
-    <mergeCell ref="A29:V29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99399BD1-DB50-4787-A6CA-3237CF9ACBB0}">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27153,7 +30271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A91C0B4-FE79-4361-830D-23A956FB6614}">
   <dimension ref="A1:B2"/>
   <sheetViews>
